--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/EliosSuite/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/EliosSuite/3/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\EliosSuite\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277704F7-7B42-49BF-83DE-8A893FDB07A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC6661-86E5-4CEC-8626-355791F041FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1043">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4899,6 +4899,9 @@
   <si>
     <t xml:space="preserve">Non viene gestita la sezione
 </t>
+  </si>
+  <si>
+    <t>non gestito</t>
   </si>
 </sst>
 </file>
@@ -7855,10 +7858,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15738,8 +15741,12 @@
       <c r="G198" s="24"/>
       <c r="H198" s="24"/>
       <c r="I198" s="24"/>
-      <c r="J198" s="25"/>
-      <c r="K198" s="25"/>
+      <c r="J198" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="K198" s="25" t="s">
+        <v>1042</v>
+      </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
       <c r="N198" s="25"/>
@@ -22068,8 +22075,12 @@
       <c r="G383" s="24"/>
       <c r="H383" s="24"/>
       <c r="I383" s="24"/>
-      <c r="J383" s="25"/>
-      <c r="K383" s="25"/>
+      <c r="J383" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="K383" s="25" t="s">
+        <v>1042</v>
+      </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
       <c r="N383" s="25"/>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/EliosSuite/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/EliosSuite/3/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\EliosSuite\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC6661-86E5-4CEC-8626-355791F041FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB479E33-5044-4AF3-BBD0-418A49A16BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1041">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4302,24 +4302,6 @@
     <t>e8c1de7ddae6442c</t>
   </si>
   <si>
-    <t>2024-04-30T11:23:10:00Z</t>
-  </si>
-  <si>
-    <t>4228af37290268a3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.0f4c2d5961a5575988a270d51b46b05de096f9badfe158b62dee535a5130c06c.93614b635f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-04-30T11:25:33:00Z</t>
-  </si>
-  <si>
-    <t>a820c7d1df3ae1c4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.0f4c2d5961a5575988a270d51b46b05de096f9badfe158b62dee535a5130c06c.fd4ed974c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-04-30T11:58:50:00Z</t>
   </si>
   <si>
@@ -4483,24 +4465,6 @@
     <t>062296d5899de242</t>
   </si>
   <si>
-    <t>2024-05-02T10:23:32:00Z</t>
-  </si>
-  <si>
-    <t>d24be9e55688ea54</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.28a304a70d33473003851f932b522112d41ae54170179cd4be64502d2d6f61a6.7da42f27d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-02T11:08:36:00Z</t>
-  </si>
-  <si>
-    <t>25ae8e61691fb16b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.28a304a70d33473003851f932b522112d41ae54170179cd4be64502d2d6f61a6.fc4a066db1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-02T11:40:42:00Z</t>
   </si>
   <si>
@@ -4765,24 +4729,6 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.54f95249b186a381047a1d805b6d316f4de1f5909d80f8069c947fc1717797f9.036ec2f5fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-05-08T11:11:42:00Z</t>
-  </si>
-  <si>
-    <t>af4f6417d410c742</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.66e0d9b209669242af6ac80122211ca626414e5681350bd406ef9fa9d8688e95.753081bf95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-08T11:15:16:00Z</t>
-  </si>
-  <si>
-    <t>1e33c3756222ef0f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.66e0d9b209669242af6ac80122211ca626414e5681350bd406ef9fa9d8688e95.3909c32c60^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-08T11:16:21:00Z</t>
   </si>
   <si>
@@ -4901,7 +4847,56 @@
 </t>
   </si>
   <si>
-    <t>non gestito</t>
+    <t>2024-05-22T09:36:55:00Z</t>
+  </si>
+  <si>
+    <t>e3aefecc9cf5bc37</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.0f4c2d5961a5575988a270d51b46b05de096f9badfe158b62dee535a5130c06c.edf78ecd77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-22T09:40:37:00Z</t>
+  </si>
+  <si>
+    <t>8f06a73eb075e02a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.0f4c2d5961a5575988a270d51b46b05de096f9badfe158b62dee535a5130c06c.9e263a755e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-22T10:12:21:00Z</t>
+  </si>
+  <si>
+    <t>f77c8686b1101cd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.28a304a70d33473003851f932b522112d41ae54170179cd4be64502d2d6f61a6.698d7ae634^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Non gestita</t>
+  </si>
+  <si>
+    <t>2024-05-22T10:16:44:00Z</t>
+  </si>
+  <si>
+    <t>403877719fdded15</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.28a304a70d33473003851f932b522112d41ae54170179cd4be64502d2d6f61a6.00d9c08193^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-22T11:41:15:00Z</t>
+  </si>
+  <si>
+    <t>d33b05be19a15019</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.66e0d9b209669242af6ac80122211ca626414e5681350bd406ef9fa9d8688e95.c97a140fe8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non viene gestita la sezione partecipant
+</t>
   </si>
 </sst>
 </file>
@@ -5718,7 +5713,7 @@
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1">
@@ -7858,10 +7853,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B383" sqref="B383"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7928,7 +7923,7 @@
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="57" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D3" s="49"/>
       <c r="F3" s="12"/>
@@ -7951,7 +7946,7 @@
       <c r="A4" s="53"/>
       <c r="B4" s="54"/>
       <c r="C4" s="57" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="4"/>
@@ -7975,7 +7970,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D5" s="49"/>
       <c r="F5" s="12"/>
@@ -8130,16 +8125,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>132</v>
@@ -8174,16 +8169,16 @@
         <v>49</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>132</v>
@@ -8218,16 +8213,16 @@
         <v>51</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>997</v>
+        <v>1037</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>997</v>
+        <v>1037</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>998</v>
+        <v>1038</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>132</v>
@@ -8269,7 +8264,7 @@
         <v>841</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -8299,22 +8294,16 @@
       <c r="E14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>1002</v>
-      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="25"/>
+        <v>841</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>1040</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -8351,7 +8340,7 @@
         <v>841</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -8389,7 +8378,7 @@
         <v>841</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -8427,7 +8416,7 @@
         <v>841</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -8465,7 +8454,7 @@
         <v>841</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -8496,16 +8485,16 @@
         <v>67</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>850</v>
+        <v>1027</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>850</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>851</v>
+        <v>1027</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>1028</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>852</v>
+        <v>1029</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>132</v>
@@ -8540,16 +8529,16 @@
         <v>69</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="J20" s="34" t="s">
         <v>132</v>
@@ -8591,7 +8580,7 @@
         <v>841</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -8629,7 +8618,7 @@
         <v>841</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -9068,13 +9057,13 @@
         <v>102</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="I35" s="33" t="s">
         <v>842</v>
@@ -9090,13 +9079,13 @@
         <v>132</v>
       </c>
       <c r="N35" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O35" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P35" s="34" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q35" s="25"/>
       <c r="R35" s="26"/>
@@ -9122,13 +9111,13 @@
         <v>102</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>842</v>
@@ -9144,13 +9133,13 @@
         <v>132</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O36" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -9232,13 +9221,13 @@
         <v>132</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O38" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P38" s="34" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -9264,13 +9253,13 @@
         <v>102</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I39" s="33" t="s">
         <v>842</v>
@@ -9286,13 +9275,13 @@
         <v>132</v>
       </c>
       <c r="N39" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O39" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9420,13 +9409,13 @@
         <v>118</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="I43" s="33" t="s">
         <v>842</v>
@@ -9442,13 +9431,13 @@
         <v>132</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O43" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
@@ -9474,13 +9463,13 @@
         <v>118</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>842</v>
@@ -9496,13 +9485,13 @@
         <v>132</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O44" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -9582,13 +9571,13 @@
         <v>132</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O46" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -9614,13 +9603,13 @@
         <v>118</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="I47" s="33" t="s">
         <v>842</v>
@@ -9636,13 +9625,13 @@
         <v>132</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O47" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -9784,13 +9773,13 @@
         <v>132</v>
       </c>
       <c r="N51" s="34" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O51" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26" t="s">
@@ -9832,13 +9821,13 @@
         <v>132</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O52" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26" t="s">
@@ -9916,13 +9905,13 @@
         <v>132</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O54" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P54" s="41" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="Q54" s="25"/>
       <c r="R54" s="26" t="s">
@@ -9964,13 +9953,13 @@
         <v>132</v>
       </c>
       <c r="N55" s="34" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O55" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -10106,16 +10095,16 @@
         <v>141</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="J59" s="34" t="s">
         <v>132</v>
@@ -10128,13 +10117,13 @@
         <v>132</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O59" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="Q59" s="25"/>
       <c r="R59" s="26"/>
@@ -10160,16 +10149,16 @@
         <v>143</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="J60" s="34" t="s">
         <v>132</v>
@@ -10182,13 +10171,13 @@
         <v>132</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O60" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P60" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q60" s="25"/>
       <c r="R60" s="26"/>
@@ -10214,16 +10203,16 @@
         <v>145</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>132</v>
@@ -10236,13 +10225,13 @@
         <v>132</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O61" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P61" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q61" s="25"/>
       <c r="R61" s="26"/>
@@ -10268,16 +10257,16 @@
         <v>147</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="I62" s="33" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="34" t="s">
         <v>132</v>
@@ -10290,13 +10279,13 @@
         <v>132</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O62" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P62" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q62" s="25"/>
       <c r="R62" s="26"/>
@@ -10322,16 +10311,16 @@
         <v>149</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="J63" s="34" t="s">
         <v>132</v>
@@ -10344,13 +10333,13 @@
         <v>132</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O63" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q63" s="25"/>
       <c r="R63" s="26"/>
@@ -10376,16 +10365,16 @@
         <v>151</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="J64" s="34" t="s">
         <v>132</v>
@@ -10398,13 +10387,13 @@
         <v>132</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="O64" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q64" s="25"/>
       <c r="R64" s="26"/>
@@ -10430,16 +10419,16 @@
         <v>153</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="J65" s="34" t="s">
         <v>132</v>
@@ -10452,13 +10441,13 @@
         <v>132</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O65" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P65" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="26"/>
@@ -10484,16 +10473,16 @@
         <v>155</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="J66" s="34" t="s">
         <v>132</v>
@@ -10506,13 +10495,13 @@
         <v>132</v>
       </c>
       <c r="N66" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O66" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P66" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
@@ -10538,16 +10527,16 @@
         <v>157</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>132</v>
@@ -10560,13 +10549,13 @@
         <v>132</v>
       </c>
       <c r="N67" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O67" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P67" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
@@ -10592,16 +10581,16 @@
         <v>159</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="I68" s="33" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="J68" s="34" t="s">
         <v>132</v>
@@ -10614,13 +10603,13 @@
         <v>132</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O68" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
@@ -10646,16 +10635,16 @@
         <v>161</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="J69" s="34" t="s">
         <v>132</v>
@@ -10668,13 +10657,13 @@
         <v>132</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O69" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="26"/>
@@ -10700,16 +10689,16 @@
         <v>163</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="I70" s="33" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="J70" s="34" t="s">
         <v>132</v>
@@ -10722,13 +10711,13 @@
         <v>132</v>
       </c>
       <c r="N70" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O70" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P70" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
@@ -10754,16 +10743,16 @@
         <v>165</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="I71" s="33" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="J71" s="34" t="s">
         <v>132</v>
@@ -10776,13 +10765,13 @@
         <v>132</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O71" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P71" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -10808,16 +10797,16 @@
         <v>167</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="J72" s="34" t="s">
         <v>132</v>
@@ -10830,13 +10819,13 @@
         <v>132</v>
       </c>
       <c r="N72" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O72" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q72" s="25"/>
       <c r="R72" s="26"/>
@@ -10862,16 +10851,16 @@
         <v>169</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="J73" s="34" t="s">
         <v>132</v>
@@ -10884,13 +10873,13 @@
         <v>132</v>
       </c>
       <c r="N73" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O73" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P73" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q73" s="25"/>
       <c r="R73" s="26"/>
@@ -10916,16 +10905,16 @@
         <v>171</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="J74" s="34" t="s">
         <v>132</v>
@@ -10938,13 +10927,13 @@
         <v>132</v>
       </c>
       <c r="N74" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O74" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P74" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q74" s="25"/>
       <c r="R74" s="26"/>
@@ -10970,16 +10959,16 @@
         <v>173</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="J75" s="34" t="s">
         <v>132</v>
@@ -10992,13 +10981,13 @@
         <v>132</v>
       </c>
       <c r="N75" s="34" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="O75" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P75" s="34" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -11024,16 +11013,16 @@
         <v>175</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="J76" s="34" t="s">
         <v>132</v>
@@ -11046,13 +11035,13 @@
         <v>132</v>
       </c>
       <c r="N76" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O76" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P76" s="34" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
@@ -11078,16 +11067,16 @@
         <v>177</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>132</v>
@@ -11100,13 +11089,13 @@
         <v>132</v>
       </c>
       <c r="N77" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O77" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P77" s="34" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="26"/>
@@ -11139,7 +11128,7 @@
         <v>841</v>
       </c>
       <c r="K78" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -11177,7 +11166,7 @@
         <v>841</v>
       </c>
       <c r="K79" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -11215,7 +11204,7 @@
         <v>841</v>
       </c>
       <c r="K80" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -11253,7 +11242,7 @@
         <v>841</v>
       </c>
       <c r="K81" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -11284,16 +11273,16 @@
         <v>187</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="J82" s="34" t="s">
         <v>132</v>
@@ -11306,13 +11295,13 @@
         <v>132</v>
       </c>
       <c r="N82" s="43" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O82" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P82" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q82" s="25"/>
       <c r="R82" s="26"/>
@@ -11338,16 +11327,16 @@
         <v>189</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="I83" s="33" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="J83" s="25" t="s">
         <v>132</v>
@@ -11360,13 +11349,13 @@
         <v>132</v>
       </c>
       <c r="N83" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O83" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P83" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q83" s="25"/>
       <c r="R83" s="26"/>
@@ -11392,16 +11381,16 @@
         <v>191</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="J84" s="34" t="s">
         <v>132</v>
@@ -11414,13 +11403,13 @@
         <v>132</v>
       </c>
       <c r="N84" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O84" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P84" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q84" s="25"/>
       <c r="R84" s="26"/>
@@ -11446,16 +11435,16 @@
         <v>193</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="J85" s="34" t="s">
         <v>132</v>
@@ -11468,13 +11457,13 @@
         <v>132</v>
       </c>
       <c r="N85" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O85" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P85" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q85" s="25"/>
       <c r="R85" s="26"/>
@@ -11500,16 +11489,16 @@
         <v>195</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="J86" s="34" t="s">
         <v>132</v>
@@ -11522,13 +11511,13 @@
         <v>132</v>
       </c>
       <c r="N86" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O86" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P86" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q86" s="25"/>
       <c r="R86" s="26"/>
@@ -11554,16 +11543,16 @@
         <v>197</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="J87" s="34" t="s">
         <v>132</v>
@@ -11576,13 +11565,13 @@
         <v>132</v>
       </c>
       <c r="N87" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O87" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P87" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q87" s="25"/>
       <c r="R87" s="26"/>
@@ -11615,7 +11604,7 @@
         <v>841</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L88" s="25"/>
       <c r="M88" s="25"/>
@@ -11653,7 +11642,7 @@
         <v>841</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -11684,16 +11673,16 @@
         <v>203</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="J90" s="34" t="s">
         <v>132</v>
@@ -11706,13 +11695,13 @@
         <v>132</v>
       </c>
       <c r="N90" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O90" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q90" s="25"/>
       <c r="R90" s="26"/>
@@ -11738,16 +11727,16 @@
         <v>205</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J91" s="34" t="s">
         <v>132</v>
@@ -11760,13 +11749,13 @@
         <v>132</v>
       </c>
       <c r="N91" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O91" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P91" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q91" s="25"/>
       <c r="R91" s="26"/>
@@ -11792,16 +11781,16 @@
         <v>207</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="J92" s="34" t="s">
         <v>132</v>
@@ -11814,13 +11803,13 @@
         <v>132</v>
       </c>
       <c r="N92" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O92" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="26"/>
@@ -11853,7 +11842,7 @@
         <v>841</v>
       </c>
       <c r="K93" s="34" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="L93" s="25"/>
       <c r="M93" s="25"/>
@@ -11891,7 +11880,7 @@
         <v>841</v>
       </c>
       <c r="K94" s="34" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
@@ -11926,10 +11915,10 @@
       <c r="H95" s="38"/>
       <c r="I95" s="24"/>
       <c r="J95" s="34" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="K95" s="34" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
@@ -11967,7 +11956,7 @@
         <v>841</v>
       </c>
       <c r="K96" s="34" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
@@ -12002,10 +11991,10 @@
       <c r="H97" s="38"/>
       <c r="I97" s="24"/>
       <c r="J97" s="34" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="K97" s="34" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -12040,10 +12029,10 @@
       <c r="H98" s="38"/>
       <c r="I98" s="24"/>
       <c r="J98" s="34" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="K98" s="34" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
@@ -12081,7 +12070,7 @@
         <v>841</v>
       </c>
       <c r="K99" s="34" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -12119,7 +12108,7 @@
         <v>841</v>
       </c>
       <c r="K100" s="34" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -13952,16 +13941,16 @@
         <v>331</v>
       </c>
       <c r="F154" s="33" t="s">
-        <v>907</v>
+        <v>1034</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>907</v>
+        <v>1034</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>908</v>
+        <v>1035</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>909</v>
+        <v>1036</v>
       </c>
       <c r="J154" s="34" t="s">
         <v>132</v>
@@ -14003,7 +13992,7 @@
         <v>841</v>
       </c>
       <c r="K155" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -14041,7 +14030,7 @@
         <v>841</v>
       </c>
       <c r="K156" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -14079,7 +14068,7 @@
         <v>841</v>
       </c>
       <c r="K157" s="44" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -14110,16 +14099,16 @@
         <v>339</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="J158" s="34" t="s">
         <v>132</v>
@@ -14132,13 +14121,13 @@
         <v>132</v>
       </c>
       <c r="N158" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O158" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P158" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q158" s="25"/>
       <c r="R158" s="26"/>
@@ -14164,16 +14153,16 @@
         <v>341</v>
       </c>
       <c r="F159" s="33" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="J159" s="34" t="s">
         <v>132</v>
@@ -14186,13 +14175,13 @@
         <v>132</v>
       </c>
       <c r="N159" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O159" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P159" s="34" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -14218,16 +14207,16 @@
         <v>343</v>
       </c>
       <c r="F160" s="33" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="J160" s="34" t="s">
         <v>132</v>
@@ -14240,13 +14229,13 @@
         <v>132</v>
       </c>
       <c r="N160" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O160" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P160" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q160" s="25"/>
       <c r="R160" s="26"/>
@@ -14272,16 +14261,16 @@
         <v>345</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="J161" s="34" t="s">
         <v>132</v>
@@ -14294,13 +14283,13 @@
         <v>132</v>
       </c>
       <c r="N161" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O161" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P161" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
@@ -14326,16 +14315,16 @@
         <v>347</v>
       </c>
       <c r="F162" s="33" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="J162" s="34" t="s">
         <v>132</v>
@@ -14348,13 +14337,13 @@
         <v>132</v>
       </c>
       <c r="N162" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O162" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P162" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>
@@ -14380,16 +14369,16 @@
         <v>349</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="J163" s="34" t="s">
         <v>132</v>
@@ -14402,13 +14391,13 @@
         <v>132</v>
       </c>
       <c r="N163" s="34" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="O163" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P163" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q163" s="25"/>
       <c r="R163" s="26"/>
@@ -14441,7 +14430,7 @@
         <v>841</v>
       </c>
       <c r="K164" s="34" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -14472,16 +14461,16 @@
         <v>353</v>
       </c>
       <c r="F165" s="33" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="J165" s="34" t="s">
         <v>132</v>
@@ -14494,13 +14483,13 @@
         <v>132</v>
       </c>
       <c r="N165" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O165" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P165" s="34" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="Q165" s="25"/>
       <c r="R165" s="26"/>
@@ -14526,16 +14515,16 @@
         <v>355</v>
       </c>
       <c r="F166" s="33" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="J166" s="34" t="s">
         <v>132</v>
@@ -14548,13 +14537,13 @@
         <v>132</v>
       </c>
       <c r="N166" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O166" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P166" s="34" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="Q166" s="25"/>
       <c r="R166" s="26"/>
@@ -14580,16 +14569,16 @@
         <v>357</v>
       </c>
       <c r="F167" s="33" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="J167" s="34" t="s">
         <v>132</v>
@@ -14602,13 +14591,13 @@
         <v>132</v>
       </c>
       <c r="N167" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O167" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P167" s="34" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -14634,16 +14623,16 @@
         <v>359</v>
       </c>
       <c r="F168" s="33" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="J168" s="34" t="s">
         <v>132</v>
@@ -14656,13 +14645,13 @@
         <v>132</v>
       </c>
       <c r="N168" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O168" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P168" s="34" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -14695,7 +14684,7 @@
         <v>841</v>
       </c>
       <c r="K169" s="34" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -14726,16 +14715,16 @@
         <v>363</v>
       </c>
       <c r="F170" s="33" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>132</v>
@@ -14748,13 +14737,13 @@
         <v>132</v>
       </c>
       <c r="N170" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O170" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P170" s="34" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="Q170" s="25"/>
       <c r="R170" s="26"/>
@@ -14787,7 +14776,7 @@
         <v>841</v>
       </c>
       <c r="K171" s="34" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -14825,7 +14814,7 @@
         <v>841</v>
       </c>
       <c r="K172" s="34" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -14863,7 +14852,7 @@
         <v>841</v>
       </c>
       <c r="K173" s="34" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -14901,7 +14890,7 @@
         <v>841</v>
       </c>
       <c r="K174" s="34" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -14939,7 +14928,7 @@
         <v>841</v>
       </c>
       <c r="K175" s="34" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -14970,16 +14959,16 @@
         <v>375</v>
       </c>
       <c r="F176" s="33" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="H176" s="33" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="I176" s="33" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="J176" s="34" t="s">
         <v>132</v>
@@ -14992,13 +14981,13 @@
         <v>132</v>
       </c>
       <c r="N176" s="34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O176" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P176" s="34" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="Q176" s="25"/>
       <c r="R176" s="26"/>
@@ -15741,11 +15730,11 @@
       <c r="G198" s="24"/>
       <c r="H198" s="24"/>
       <c r="I198" s="24"/>
-      <c r="J198" s="25" t="s">
+      <c r="J198" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K198" s="25" t="s">
-        <v>1042</v>
+      <c r="K198" s="34" t="s">
+        <v>1033</v>
       </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -21760,16 +21749,16 @@
         <v>771</v>
       </c>
       <c r="F375" s="33" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G375" s="33" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="H375" s="33" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="I375" s="33" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="J375" s="34" t="s">
         <v>132</v>
@@ -21804,16 +21793,16 @@
         <v>773</v>
       </c>
       <c r="F376" s="33" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="G376" s="33" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="H376" s="33" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="I376" s="33" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>132</v>
@@ -21847,17 +21836,17 @@
       <c r="E377" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="F377" s="36" t="s">
-        <v>847</v>
-      </c>
-      <c r="G377" s="36" t="s">
-        <v>847</v>
-      </c>
-      <c r="H377" s="36" t="s">
-        <v>848</v>
+      <c r="F377" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G377" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H377" s="33" t="s">
+        <v>1025</v>
       </c>
       <c r="I377" s="33" t="s">
-        <v>849</v>
+        <v>1026</v>
       </c>
       <c r="J377" s="34" t="s">
         <v>132</v>
@@ -21994,16 +21983,16 @@
         <v>783</v>
       </c>
       <c r="F381" s="33" t="s">
-        <v>904</v>
+        <v>1030</v>
       </c>
       <c r="G381" s="33" t="s">
-        <v>904</v>
+        <v>1030</v>
       </c>
       <c r="H381" s="33" t="s">
-        <v>905</v>
+        <v>1031</v>
       </c>
       <c r="I381" s="33" t="s">
-        <v>906</v>
+        <v>1032</v>
       </c>
       <c r="J381" s="34" t="s">
         <v>132</v>
@@ -22075,11 +22064,11 @@
       <c r="G383" s="24"/>
       <c r="H383" s="24"/>
       <c r="I383" s="24"/>
-      <c r="J383" s="25" t="s">
+      <c r="J383" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K383" s="25" t="s">
-        <v>1042</v>
+      <c r="K383" s="34" t="s">
+        <v>1033</v>
       </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/EliosSuite/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/EliosSuite/3/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2_2024\Terzo Invio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB479E33-5044-4AF3-BBD0-418A49A16BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC91E74-424E-412A-B97F-9C6ECCBB9133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1042">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4413,19 +4413,10 @@
     <t>Errore JWT</t>
   </si>
   <si>
-    <t>Viene mostrato un messaggio di errore all'operatore</t>
-  </si>
-  <si>
     <t>Errore Timeout</t>
   </si>
   <si>
-    <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore</t>
-  </si>
-  <si>
     <t>Errore di sintassi</t>
-  </si>
-  <si>
-    <t>CONTROLLO SINTASSI DOCUMENTO</t>
   </si>
   <si>
     <t xml:space="preserve">3) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
@@ -4591,24 +4582,9 @@
     <t>Non vegono gestite le sezioni opzionali</t>
   </si>
   <si>
-    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI PAZIENTE</t>
-  </si>
-  <si>
     <t>Errore terminologico</t>
   </si>
   <si>
-    <t>CONTROLLO DATI IMPEGNATIVA</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI ACCETTAZIONE</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI REFERTO</t>
-  </si>
-  <si>
     <t>2024-05-06T15:43:26:00Z</t>
   </si>
   <si>
@@ -4838,9 +4814,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.66e0d9b209669242af6ac80122211ca626414e5681350bd406ef9fa9d8688e95.bfd4171c8a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI</t>
   </si>
   <si>
     <t xml:space="preserve">Non viene gestita la sezione
@@ -4895,8 +4868,37 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.66e0d9b209669242af6ac80122211ca626414e5681350bd406ef9fa9d8688e95.c97a140fe8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Non viene gestita la sezione partecipant
-</t>
+    <t>2024-06-03T14:57:46:00Z</t>
+  </si>
+  <si>
+    <t>3490bb33c14120f9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.66e0d9b209669242af6ac80122211ca626414e5681350bd406ef9fa9d8688e95.90914dac0c</t>
+  </si>
+  <si>
+    <t>Un messaggio di alert viene mostrato a video, suggerendo all'operatore i possibili controlli da effettuare per poter risolvere eventuali errori e riprovare l'invio.</t>
+  </si>
+  <si>
+    <t>Il messaggio è inserito in uno spooler di invio, se il messaggio va in errore timeout, il sistema attende un tempo (configurabile, default 30000ms) per eseguire un nuovo tentativo di invio. Ad ogni tentativo di invio andato in errore timeout, aumenta il tempo di attesa per l'invio successivo</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI PAZIENTE: Un messaggio di alert viene mostrato a video, nel messaggio viene descritto l'errore tornato dal sistema FSE e alcuni suggerimenti all'operatore sui possibili controlli da effettuare per poter risolvere gli errori. Una volta che l'operatore ha eseguito tutti i controlli e risolto gli errori può riprovare l'invio tramite un'apposita funzione nella gestione dello spooler di invio.</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI: Un messaggio di alert viene mostrato a video, nel messaggio viene descritto l'errore tornato dal sistema FSE e alcuni suggerimenti all'operatore sui possibili controlli da effettuare per poter risolvere gli errori. Una volta che l'operatore ha eseguito tutti i controlli e risolto gli errori può riprovare l'invio tramite un'apposita funzione nella gestione dello spooler di invio.</t>
+  </si>
+  <si>
+    <t>CONTROLLO SINTASSI DOCUMENTO: Un messaggio di alert viene mostrato a video, nel messaggio viene descritto l'errore tornato dal sistema FSE e alcuni suggerimenti all'operatore sui possibili controlli da effettuare per poter risolvere gli errori. Una volta che l'operatore ha eseguito tutti i controlli e risolto gli errori può riprovare l'invio tramite un'apposita funzione nella gestione dello spooler di invio.</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI IMPEGNATIVA: Un messaggio di alert viene mostrato a video, nel messaggio viene descritto l'errore tornato dal sistema FSE e alcuni suggerimenti all'operatore sui possibili controlli da effettuare per poter risolvere gli errori. Una volta che l'operatore ha eseguito tutti i controlli e risolto gli errori può riprovare l'invio tramite un'apposita funzione nella gestione dello spooler di invio.</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI ACCETTAZIONE: Un messaggio di alert viene mostrato a video, nel messaggio viene descritto l'errore tornato dal sistema FSE e alcuni suggerimenti all'operatore sui possibili controlli da effettuare per poter risolvere gli errori. Una volta che l'operatore ha eseguito tutti i controlli e risolto gli errori può riprovare l'invio tramite un'apposita funzione nella gestione dello spooler di invio.</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI REFERTO: Un messaggio di alert viene mostrato a video, nel messaggio viene descritto l'errore tornato dal sistema FSE e alcuni suggerimenti all'operatore sui possibili controlli da effettuare per poter risolvere gli errori. Una volta che l'operatore ha eseguito tutti i controlli e risolto gli errori può riprovare l'invio tramite un'apposita funzione nella gestione dello spooler di invio.</t>
   </si>
 </sst>
 </file>
@@ -5352,9 +5354,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5389,6 +5388,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5707,13 +5709,13 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>889</v>
+      <c r="A4" s="41" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1">
@@ -7853,10 +7855,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7870,7 +7872,7 @@
     <col min="9" max="9" width="139.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" style="57" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -7888,19 +7890,19 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="14"/>
       <c r="S1" s="2"/>
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="48"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7911,21 +7913,21 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
       <c r="S2" s="2"/>
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
-        <v>891</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
+        <v>888</v>
+      </c>
+      <c r="D3" s="48"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7936,19 +7938,19 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="14"/>
       <c r="S3" s="2"/>
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
-        <v>892</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7960,19 +7962,19 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="2"/>
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
-        <v>893</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>890</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7983,15 +7985,15 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="14"/>
       <c r="S5" s="2"/>
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8003,7 +8005,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="14"/>
       <c r="S6" s="2"/>
@@ -8023,7 +8025,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="14"/>
       <c r="S7" s="2"/>
@@ -8040,7 +8042,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
       <c r="S8" s="2"/>
@@ -8108,7 +8110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -8125,16 +8127,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>132</v>
@@ -8152,7 +8154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -8169,16 +8171,16 @@
         <v>49</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>132</v>
@@ -8196,7 +8198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -8213,16 +8215,16 @@
         <v>51</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>132</v>
@@ -8240,7 +8242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -8263,8 +8265,8 @@
       <c r="J13" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K13" s="45" t="s">
-        <v>1023</v>
+      <c r="K13" s="44" t="s">
+        <v>1014</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -8278,7 +8280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -8294,16 +8296,22 @@
       <c r="E14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="J14" s="34" t="s">
-        <v>841</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>1040</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K14" s="44"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -8316,7 +8324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -8354,7 +8362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -8392,7 +8400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -8430,7 +8438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -8468,7 +8476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -8485,16 +8493,16 @@
         <v>67</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>132</v>
@@ -8512,7 +8520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -8556,7 +8564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -8594,7 +8602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -9057,13 +9065,13 @@
         <v>102</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="I35" s="33" t="s">
         <v>842</v>
@@ -9085,7 +9093,7 @@
         <v>132</v>
       </c>
       <c r="P35" s="34" t="s">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="Q35" s="25"/>
       <c r="R35" s="26"/>
@@ -9111,13 +9119,13 @@
         <v>102</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>842</v>
@@ -9139,7 +9147,7 @@
         <v>132</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -9227,7 +9235,7 @@
         <v>841</v>
       </c>
       <c r="P38" s="34" t="s">
-        <v>884</v>
+        <v>1034</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -9253,13 +9261,13 @@
         <v>102</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I39" s="33" t="s">
         <v>842</v>
@@ -9281,7 +9289,7 @@
         <v>132</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9409,13 +9417,13 @@
         <v>118</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="I43" s="33" t="s">
         <v>842</v>
@@ -9437,7 +9445,7 @@
         <v>132</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
@@ -9463,13 +9471,13 @@
         <v>118</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>842</v>
@@ -9491,7 +9499,7 @@
         <v>132</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -9577,7 +9585,7 @@
         <v>841</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>884</v>
+        <v>1034</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -9603,13 +9611,13 @@
         <v>118</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I47" s="33" t="s">
         <v>842</v>
@@ -9631,7 +9639,7 @@
         <v>132</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -9773,13 +9781,13 @@
         <v>132</v>
       </c>
       <c r="N51" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O51" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>886</v>
+        <v>1035</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26" t="s">
@@ -9821,13 +9829,13 @@
         <v>132</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O52" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>886</v>
+        <v>1035</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26" t="s">
@@ -9905,13 +9913,13 @@
         <v>132</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O54" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="P54" s="41" t="s">
-        <v>886</v>
+      <c r="P54" s="34" t="s">
+        <v>1035</v>
       </c>
       <c r="Q54" s="25"/>
       <c r="R54" s="26" t="s">
@@ -9953,13 +9961,13 @@
         <v>132</v>
       </c>
       <c r="N55" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O55" s="34" t="s">
         <v>132</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>886</v>
+        <v>1035</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -10095,16 +10103,16 @@
         <v>141</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="J59" s="34" t="s">
         <v>132</v>
@@ -10117,13 +10125,13 @@
         <v>132</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O59" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>940</v>
+        <v>1036</v>
       </c>
       <c r="Q59" s="25"/>
       <c r="R59" s="26"/>
@@ -10149,16 +10157,16 @@
         <v>143</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="J60" s="34" t="s">
         <v>132</v>
@@ -10171,13 +10179,13 @@
         <v>132</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O60" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P60" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q60" s="25"/>
       <c r="R60" s="26"/>
@@ -10203,16 +10211,16 @@
         <v>145</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>132</v>
@@ -10225,13 +10233,13 @@
         <v>132</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O61" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P61" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q61" s="25"/>
       <c r="R61" s="26"/>
@@ -10257,16 +10265,16 @@
         <v>147</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="I62" s="33" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="J62" s="34" t="s">
         <v>132</v>
@@ -10279,13 +10287,13 @@
         <v>132</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O62" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P62" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q62" s="25"/>
       <c r="R62" s="26"/>
@@ -10311,16 +10319,16 @@
         <v>149</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="J63" s="34" t="s">
         <v>132</v>
@@ -10333,13 +10341,13 @@
         <v>132</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O63" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q63" s="25"/>
       <c r="R63" s="26"/>
@@ -10365,16 +10373,16 @@
         <v>151</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="J64" s="34" t="s">
         <v>132</v>
@@ -10387,13 +10395,13 @@
         <v>132</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="O64" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q64" s="25"/>
       <c r="R64" s="26"/>
@@ -10419,16 +10427,16 @@
         <v>153</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="J65" s="34" t="s">
         <v>132</v>
@@ -10441,13 +10449,13 @@
         <v>132</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O65" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P65" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="26"/>
@@ -10473,16 +10481,16 @@
         <v>155</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="J66" s="34" t="s">
         <v>132</v>
@@ -10495,13 +10503,13 @@
         <v>132</v>
       </c>
       <c r="N66" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O66" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P66" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
@@ -10527,16 +10535,16 @@
         <v>157</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>132</v>
@@ -10549,13 +10557,13 @@
         <v>132</v>
       </c>
       <c r="N67" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O67" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P67" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
@@ -10581,16 +10589,16 @@
         <v>159</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="I68" s="33" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="J68" s="34" t="s">
         <v>132</v>
@@ -10603,13 +10611,13 @@
         <v>132</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O68" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
@@ -10635,16 +10643,16 @@
         <v>161</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="J69" s="34" t="s">
         <v>132</v>
@@ -10657,13 +10665,13 @@
         <v>132</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O69" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="26"/>
@@ -10689,16 +10697,16 @@
         <v>163</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="I70" s="33" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="J70" s="34" t="s">
         <v>132</v>
@@ -10711,13 +10719,13 @@
         <v>132</v>
       </c>
       <c r="N70" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O70" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P70" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
@@ -10743,16 +10751,16 @@
         <v>165</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I71" s="33" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J71" s="34" t="s">
         <v>132</v>
@@ -10765,13 +10773,13 @@
         <v>132</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O71" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P71" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -10797,16 +10805,16 @@
         <v>167</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J72" s="34" t="s">
         <v>132</v>
@@ -10819,13 +10827,13 @@
         <v>132</v>
       </c>
       <c r="N72" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O72" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q72" s="25"/>
       <c r="R72" s="26"/>
@@ -10851,16 +10859,16 @@
         <v>169</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="J73" s="34" t="s">
         <v>132</v>
@@ -10873,13 +10881,13 @@
         <v>132</v>
       </c>
       <c r="N73" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O73" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P73" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q73" s="25"/>
       <c r="R73" s="26"/>
@@ -10905,16 +10913,16 @@
         <v>171</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="J74" s="34" t="s">
         <v>132</v>
@@ -10927,13 +10935,13 @@
         <v>132</v>
       </c>
       <c r="N74" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O74" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P74" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q74" s="25"/>
       <c r="R74" s="26"/>
@@ -10959,16 +10967,16 @@
         <v>173</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="J75" s="34" t="s">
         <v>132</v>
@@ -10981,13 +10989,13 @@
         <v>132</v>
       </c>
       <c r="N75" s="34" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="O75" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P75" s="34" t="s">
-        <v>940</v>
+        <v>1036</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -11013,16 +11021,16 @@
         <v>175</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="J76" s="34" t="s">
         <v>132</v>
@@ -11035,13 +11043,13 @@
         <v>132</v>
       </c>
       <c r="N76" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O76" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P76" s="34" t="s">
-        <v>942</v>
+        <v>1039</v>
       </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
@@ -11067,16 +11075,16 @@
         <v>177</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>132</v>
@@ -11089,13 +11097,13 @@
         <v>132</v>
       </c>
       <c r="N77" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O77" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P77" s="34" t="s">
-        <v>942</v>
+        <v>1039</v>
       </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="26"/>
@@ -11127,8 +11135,8 @@
       <c r="J78" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K78" s="44" t="s">
-        <v>934</v>
+      <c r="K78" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -11165,8 +11173,8 @@
       <c r="J79" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K79" s="44" t="s">
-        <v>934</v>
+      <c r="K79" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -11203,8 +11211,8 @@
       <c r="J80" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K80" s="44" t="s">
-        <v>934</v>
+      <c r="K80" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -11241,8 +11249,8 @@
       <c r="J81" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K81" s="44" t="s">
-        <v>934</v>
+      <c r="K81" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -11294,14 +11302,14 @@
       <c r="M82" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="N82" s="43" t="s">
-        <v>887</v>
+      <c r="N82" s="42" t="s">
+        <v>885</v>
       </c>
       <c r="O82" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P82" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q82" s="25"/>
       <c r="R82" s="26"/>
@@ -11349,13 +11357,13 @@
         <v>132</v>
       </c>
       <c r="N83" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O83" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P83" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q83" s="25"/>
       <c r="R83" s="26"/>
@@ -11403,13 +11411,13 @@
         <v>132</v>
       </c>
       <c r="N84" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O84" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P84" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q84" s="25"/>
       <c r="R84" s="26"/>
@@ -11457,13 +11465,13 @@
         <v>132</v>
       </c>
       <c r="N85" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O85" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P85" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q85" s="25"/>
       <c r="R85" s="26"/>
@@ -11511,13 +11519,13 @@
         <v>132</v>
       </c>
       <c r="N86" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O86" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P86" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q86" s="25"/>
       <c r="R86" s="26"/>
@@ -11565,13 +11573,13 @@
         <v>132</v>
       </c>
       <c r="N87" s="34" t="s">
-        <v>887</v>
+        <v>936</v>
       </c>
       <c r="O87" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P87" s="34" t="s">
-        <v>888</v>
+        <v>1036</v>
       </c>
       <c r="Q87" s="25"/>
       <c r="R87" s="26"/>
@@ -11695,13 +11703,13 @@
         <v>132</v>
       </c>
       <c r="N90" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O90" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q90" s="25"/>
       <c r="R90" s="26"/>
@@ -11749,13 +11757,13 @@
         <v>132</v>
       </c>
       <c r="N91" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O91" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P91" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q91" s="25"/>
       <c r="R91" s="26"/>
@@ -11803,13 +11811,13 @@
         <v>132</v>
       </c>
       <c r="N92" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O92" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="26"/>
@@ -13924,7 +13932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="154" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A154" s="20">
         <v>147</v>
       </c>
@@ -13941,16 +13949,16 @@
         <v>331</v>
       </c>
       <c r="F154" s="33" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="J154" s="34" t="s">
         <v>132</v>
@@ -13968,7 +13976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="155" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A155" s="20">
         <v>148</v>
       </c>
@@ -13991,8 +13999,8 @@
       <c r="J155" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K155" s="44" t="s">
-        <v>934</v>
+      <c r="K155" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -14006,7 +14014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="156" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A156" s="20">
         <v>149</v>
       </c>
@@ -14029,8 +14037,8 @@
       <c r="J156" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K156" s="44" t="s">
-        <v>934</v>
+      <c r="K156" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -14044,7 +14052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="157" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A157" s="20">
         <v>150</v>
       </c>
@@ -14067,8 +14075,8 @@
       <c r="J157" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="K157" s="44" t="s">
-        <v>934</v>
+      <c r="K157" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -14099,16 +14107,16 @@
         <v>339</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J158" s="34" t="s">
         <v>132</v>
@@ -14121,13 +14129,13 @@
         <v>132</v>
       </c>
       <c r="N158" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O158" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P158" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q158" s="25"/>
       <c r="R158" s="26"/>
@@ -14153,16 +14161,16 @@
         <v>341</v>
       </c>
       <c r="F159" s="33" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J159" s="34" t="s">
         <v>132</v>
@@ -14175,13 +14183,13 @@
         <v>132</v>
       </c>
       <c r="N159" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O159" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P159" s="34" t="s">
-        <v>940</v>
+        <v>1036</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -14207,16 +14215,16 @@
         <v>343</v>
       </c>
       <c r="F160" s="33" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J160" s="34" t="s">
         <v>132</v>
@@ -14235,7 +14243,7 @@
         <v>841</v>
       </c>
       <c r="P160" s="34" t="s">
-        <v>888</v>
+        <v>1036</v>
       </c>
       <c r="Q160" s="25"/>
       <c r="R160" s="26"/>
@@ -14261,16 +14269,16 @@
         <v>345</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J161" s="34" t="s">
         <v>132</v>
@@ -14289,7 +14297,7 @@
         <v>841</v>
       </c>
       <c r="P161" s="34" t="s">
-        <v>888</v>
+        <v>1036</v>
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
@@ -14315,16 +14323,16 @@
         <v>347</v>
       </c>
       <c r="F162" s="33" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J162" s="34" t="s">
         <v>132</v>
@@ -14343,7 +14351,7 @@
         <v>841</v>
       </c>
       <c r="P162" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>
@@ -14369,16 +14377,16 @@
         <v>349</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J163" s="34" t="s">
         <v>132</v>
@@ -14391,13 +14399,13 @@
         <v>132</v>
       </c>
       <c r="N163" s="34" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="O163" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P163" s="34" t="s">
-        <v>888</v>
+        <v>1038</v>
       </c>
       <c r="Q163" s="25"/>
       <c r="R163" s="26"/>
@@ -14430,7 +14438,7 @@
         <v>841</v>
       </c>
       <c r="K164" s="34" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -14461,16 +14469,16 @@
         <v>353</v>
       </c>
       <c r="F165" s="33" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J165" s="34" t="s">
         <v>132</v>
@@ -14483,13 +14491,13 @@
         <v>132</v>
       </c>
       <c r="N165" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O165" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P165" s="34" t="s">
-        <v>942</v>
+        <v>1039</v>
       </c>
       <c r="Q165" s="25"/>
       <c r="R165" s="26"/>
@@ -14515,16 +14523,16 @@
         <v>355</v>
       </c>
       <c r="F166" s="33" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="J166" s="34" t="s">
         <v>132</v>
@@ -14537,13 +14545,13 @@
         <v>132</v>
       </c>
       <c r="N166" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O166" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P166" s="34" t="s">
-        <v>942</v>
+        <v>1039</v>
       </c>
       <c r="Q166" s="25"/>
       <c r="R166" s="26"/>
@@ -14569,16 +14577,16 @@
         <v>357</v>
       </c>
       <c r="F167" s="33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J167" s="34" t="s">
         <v>132</v>
@@ -14591,13 +14599,13 @@
         <v>132</v>
       </c>
       <c r="N167" s="34" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O167" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P167" s="34" t="s">
-        <v>943</v>
+        <v>1040</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -14623,16 +14631,16 @@
         <v>359</v>
       </c>
       <c r="F168" s="33" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J168" s="34" t="s">
         <v>132</v>
@@ -14645,13 +14653,13 @@
         <v>132</v>
       </c>
       <c r="N168" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O168" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P168" s="34" t="s">
-        <v>944</v>
+        <v>1041</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -14684,7 +14692,7 @@
         <v>841</v>
       </c>
       <c r="K169" s="34" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -14715,16 +14723,16 @@
         <v>363</v>
       </c>
       <c r="F170" s="33" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>132</v>
@@ -14737,13 +14745,13 @@
         <v>132</v>
       </c>
       <c r="N170" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O170" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P170" s="34" t="s">
-        <v>944</v>
+        <v>1041</v>
       </c>
       <c r="Q170" s="25"/>
       <c r="R170" s="26"/>
@@ -14776,7 +14784,7 @@
         <v>841</v>
       </c>
       <c r="K171" s="34" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -14814,7 +14822,7 @@
         <v>841</v>
       </c>
       <c r="K172" s="34" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -14852,7 +14860,7 @@
         <v>841</v>
       </c>
       <c r="K173" s="34" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -14890,7 +14898,7 @@
         <v>841</v>
       </c>
       <c r="K174" s="34" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -14928,7 +14936,7 @@
         <v>841</v>
       </c>
       <c r="K175" s="34" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -14942,7 +14950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="176" spans="1:20" ht="14.25" customHeight="1">
       <c r="A176" s="20">
         <v>169</v>
       </c>
@@ -14959,16 +14967,16 @@
         <v>375</v>
       </c>
       <c r="F176" s="33" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H176" s="33" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I176" s="33" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J176" s="34" t="s">
         <v>132</v>
@@ -14981,13 +14989,13 @@
         <v>132</v>
       </c>
       <c r="N176" s="34" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O176" s="34" t="s">
         <v>841</v>
       </c>
       <c r="P176" s="34" t="s">
-        <v>944</v>
+        <v>1041</v>
       </c>
       <c r="Q176" s="25"/>
       <c r="R176" s="26"/>
@@ -15710,7 +15718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="198" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A198" s="20">
         <v>191</v>
       </c>
@@ -15734,7 +15742,7 @@
         <v>841</v>
       </c>
       <c r="K198" s="34" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -15748,7 +15756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1">
+    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A199" s="20">
         <v>192</v>
       </c>
@@ -15782,7 +15790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1">
+    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A200" s="20">
         <v>193</v>
       </c>
@@ -15816,7 +15824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A201" s="20">
         <v>194</v>
       </c>
@@ -15850,7 +15858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A202" s="20">
         <v>195</v>
       </c>
@@ -15884,7 +15892,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A203" s="20">
         <v>196</v>
       </c>
@@ -15918,7 +15926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A204" s="20">
         <v>197</v>
       </c>
@@ -15952,7 +15960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A205" s="20">
         <v>198</v>
       </c>
@@ -15986,7 +15994,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A206" s="20">
         <v>199</v>
       </c>
@@ -16020,7 +16028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A207" s="20">
         <v>200</v>
       </c>
@@ -16054,7 +16062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A208" s="20">
         <v>201</v>
       </c>
@@ -16088,7 +16096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A209" s="20">
         <v>202</v>
       </c>
@@ -16122,7 +16130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A210" s="20">
         <v>203</v>
       </c>
@@ -16156,7 +16164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A211" s="20">
         <v>204</v>
       </c>
@@ -16190,7 +16198,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A212" s="20">
         <v>205</v>
       </c>
@@ -16224,7 +16232,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A213" s="20">
         <v>206</v>
       </c>
@@ -16258,7 +16266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A214" s="20">
         <v>207</v>
       </c>
@@ -16292,7 +16300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A215" s="20">
         <v>208</v>
       </c>
@@ -16326,7 +16334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A216" s="20">
         <v>209</v>
       </c>
@@ -16360,7 +16368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A217" s="20">
         <v>210</v>
       </c>
@@ -16394,7 +16402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A218" s="20">
         <v>211</v>
       </c>
@@ -16428,7 +16436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A219" s="20">
         <v>212</v>
       </c>
@@ -16462,7 +16470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A220" s="20">
         <v>213</v>
       </c>
@@ -16496,7 +16504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A221" s="20">
         <v>214</v>
       </c>
@@ -16530,7 +16538,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A222" s="20">
         <v>215</v>
       </c>
@@ -16564,7 +16572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A223" s="20">
         <v>216</v>
       </c>
@@ -16598,7 +16606,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A224" s="20">
         <v>217</v>
       </c>
@@ -16632,7 +16640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A225" s="20">
         <v>218</v>
       </c>
@@ -16666,7 +16674,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A226" s="20">
         <v>219</v>
       </c>
@@ -16700,7 +16708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A227" s="20">
         <v>220</v>
       </c>
@@ -16734,7 +16742,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1">
+    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A228" s="20">
         <v>221</v>
       </c>
@@ -16768,7 +16776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A229" s="20">
         <v>222</v>
       </c>
@@ -16802,7 +16810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A230" s="20">
         <v>223</v>
       </c>
@@ -17380,7 +17388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A247" s="20">
         <v>240</v>
       </c>
@@ -17414,7 +17422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A248" s="20">
         <v>241</v>
       </c>
@@ -17448,7 +17456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A249" s="20">
         <v>242</v>
       </c>
@@ -17482,7 +17490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A250" s="20">
         <v>243</v>
       </c>
@@ -17516,7 +17524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A251" s="20">
         <v>244</v>
       </c>
@@ -17550,7 +17558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A252" s="20">
         <v>245</v>
       </c>
@@ -17584,7 +17592,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A253" s="20">
         <v>246</v>
       </c>
@@ -17618,7 +17626,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A254" s="20">
         <v>247</v>
       </c>
@@ -17652,7 +17660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A255" s="20">
         <v>248</v>
       </c>
@@ -17686,7 +17694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A256" s="20">
         <v>249</v>
       </c>
@@ -17720,7 +17728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A257" s="20">
         <v>250</v>
       </c>
@@ -17754,7 +17762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A258" s="20">
         <v>251</v>
       </c>
@@ -17788,7 +17796,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A259" s="20">
         <v>252</v>
       </c>
@@ -17822,7 +17830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A260" s="20">
         <v>253</v>
       </c>
@@ -17856,7 +17864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A261" s="20">
         <v>254</v>
       </c>
@@ -17890,7 +17898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A262" s="20">
         <v>255</v>
       </c>
@@ -17924,7 +17932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A263" s="20">
         <v>256</v>
       </c>
@@ -17958,7 +17966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A264" s="20">
         <v>257</v>
       </c>
@@ -17992,7 +18000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A265" s="20">
         <v>258</v>
       </c>
@@ -18026,7 +18034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A266" s="20">
         <v>259</v>
       </c>
@@ -18060,7 +18068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A267" s="20">
         <v>260</v>
       </c>
@@ -18094,7 +18102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A268" s="20">
         <v>261</v>
       </c>
@@ -18128,7 +18136,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A269" s="20">
         <v>262</v>
       </c>
@@ -18162,7 +18170,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A270" s="20">
         <v>263</v>
       </c>
@@ -18196,7 +18204,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A271" s="20">
         <v>264</v>
       </c>
@@ -18230,7 +18238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A272" s="20">
         <v>265</v>
       </c>
@@ -18264,7 +18272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A273" s="20">
         <v>266</v>
       </c>
@@ -18298,7 +18306,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A274" s="20">
         <v>267</v>
       </c>
@@ -18332,7 +18340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A275" s="20">
         <v>268</v>
       </c>
@@ -18366,7 +18374,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A276" s="20">
         <v>269</v>
       </c>
@@ -18400,7 +18408,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A277" s="20">
         <v>270</v>
       </c>
@@ -18434,7 +18442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A278" s="20">
         <v>271</v>
       </c>
@@ -18468,7 +18476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1">
+    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1" thickBot="1">
       <c r="A279" s="20">
         <v>272</v>
       </c>
@@ -18502,7 +18510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A280" s="20">
         <v>273</v>
       </c>
@@ -18536,7 +18544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A281" s="20">
         <v>274</v>
       </c>
@@ -18570,7 +18578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A282" s="20">
         <v>275</v>
       </c>
@@ -18604,7 +18612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A283" s="20">
         <v>276</v>
       </c>
@@ -18638,7 +18646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A284" s="20">
         <v>277</v>
       </c>
@@ -18672,7 +18680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A285" s="20">
         <v>278</v>
       </c>
@@ -18706,7 +18714,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A286" s="20">
         <v>279</v>
       </c>
@@ -18740,7 +18748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A287" s="20">
         <v>280</v>
       </c>
@@ -18774,7 +18782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A288" s="20">
         <v>281</v>
       </c>
@@ -18808,7 +18816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A289" s="20">
         <v>282</v>
       </c>
@@ -18842,7 +18850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A290" s="20">
         <v>283</v>
       </c>
@@ -18876,7 +18884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A291" s="20">
         <v>284</v>
       </c>
@@ -18910,7 +18918,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A292" s="20">
         <v>285</v>
       </c>
@@ -18944,7 +18952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A293" s="20">
         <v>286</v>
       </c>
@@ -18978,7 +18986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1">
+    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A294" s="20">
         <v>287</v>
       </c>
@@ -19556,7 +19564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A311" s="20">
         <v>304</v>
       </c>
@@ -19590,7 +19598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A312" s="20">
         <v>305</v>
       </c>
@@ -19624,7 +19632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A313" s="20">
         <v>306</v>
       </c>
@@ -19658,7 +19666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A314" s="20">
         <v>307</v>
       </c>
@@ -19692,7 +19700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A315" s="20">
         <v>308</v>
       </c>
@@ -19726,7 +19734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A316" s="20">
         <v>309</v>
       </c>
@@ -19760,7 +19768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A317" s="20">
         <v>310</v>
       </c>
@@ -19794,7 +19802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A318" s="20">
         <v>311</v>
       </c>
@@ -19828,7 +19836,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A319" s="20">
         <v>312</v>
       </c>
@@ -19862,7 +19870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A320" s="20">
         <v>313</v>
       </c>
@@ -19896,7 +19904,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A321" s="20">
         <v>314</v>
       </c>
@@ -19930,7 +19938,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A322" s="20">
         <v>315</v>
       </c>
@@ -19964,7 +19972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A323" s="20">
         <v>316</v>
       </c>
@@ -19998,7 +20006,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1">
+    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A324" s="20">
         <v>317</v>
       </c>
@@ -20032,7 +20040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1">
+    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A325" s="20">
         <v>318</v>
       </c>
@@ -20066,7 +20074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A326" s="20">
         <v>319</v>
       </c>
@@ -20100,7 +20108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A327" s="20">
         <v>320</v>
       </c>
@@ -20134,7 +20142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A328" s="20">
         <v>321</v>
       </c>
@@ -20168,7 +20176,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A329" s="20">
         <v>322</v>
       </c>
@@ -20202,7 +20210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A330" s="20">
         <v>323</v>
       </c>
@@ -20236,7 +20244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A331" s="20">
         <v>324</v>
       </c>
@@ -20270,7 +20278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A332" s="20">
         <v>325</v>
       </c>
@@ -20304,7 +20312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A333" s="20">
         <v>326</v>
       </c>
@@ -20338,7 +20346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A334" s="20">
         <v>327</v>
       </c>
@@ -20508,7 +20516,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A339" s="20">
         <v>332</v>
       </c>
@@ -20542,7 +20550,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A340" s="20">
         <v>333</v>
       </c>
@@ -20576,7 +20584,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A341" s="20">
         <v>334</v>
       </c>
@@ -20610,7 +20618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A342" s="20">
         <v>335</v>
       </c>
@@ -20644,7 +20652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A343" s="20">
         <v>336</v>
       </c>
@@ -20678,7 +20686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A344" s="20">
         <v>337</v>
       </c>
@@ -20712,7 +20720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A345" s="20">
         <v>338</v>
       </c>
@@ -20746,7 +20754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A346" s="20">
         <v>339</v>
       </c>
@@ -20780,7 +20788,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A347" s="20">
         <v>340</v>
       </c>
@@ -20814,7 +20822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A348" s="20">
         <v>341</v>
       </c>
@@ -20848,7 +20856,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A349" s="20">
         <v>342</v>
       </c>
@@ -20882,7 +20890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A350" s="20">
         <v>343</v>
       </c>
@@ -21052,7 +21060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A355" s="20">
         <v>348</v>
       </c>
@@ -21086,7 +21094,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A356" s="20">
         <v>349</v>
       </c>
@@ -21120,7 +21128,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A357" s="20">
         <v>350</v>
       </c>
@@ -21154,7 +21162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A358" s="20">
         <v>351</v>
       </c>
@@ -21188,7 +21196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A359" s="20">
         <v>352</v>
       </c>
@@ -21222,7 +21230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A360" s="20">
         <v>353</v>
       </c>
@@ -21256,7 +21264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A361" s="20">
         <v>354</v>
       </c>
@@ -21290,7 +21298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A362" s="20">
         <v>355</v>
       </c>
@@ -21392,7 +21400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A365" s="20">
         <v>358</v>
       </c>
@@ -21426,7 +21434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A366" s="20">
         <v>359</v>
       </c>
@@ -21460,7 +21468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A367" s="20">
         <v>360</v>
       </c>
@@ -21494,7 +21502,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A368" s="20">
         <v>361</v>
       </c>
@@ -21528,7 +21536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A369" s="20">
         <v>362</v>
       </c>
@@ -21562,7 +21570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A370" s="20">
         <v>363</v>
       </c>
@@ -21664,7 +21672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A373" s="20">
         <v>366</v>
       </c>
@@ -21698,7 +21706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A374" s="20">
         <v>367</v>
       </c>
@@ -21732,7 +21740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="375" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A375" s="20">
         <v>368</v>
       </c>
@@ -21749,16 +21757,16 @@
         <v>771</v>
       </c>
       <c r="F375" s="33" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G375" s="33" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="H375" s="33" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I375" s="33" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="J375" s="34" t="s">
         <v>132</v>
@@ -21776,7 +21784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="376" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A376" s="20">
         <v>369</v>
       </c>
@@ -21793,16 +21801,16 @@
         <v>773</v>
       </c>
       <c r="F376" s="33" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="G376" s="33" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="H376" s="33" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I376" s="33" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>132</v>
@@ -21820,7 +21828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="377" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A377" s="20">
         <v>370</v>
       </c>
@@ -21837,16 +21845,16 @@
         <v>775</v>
       </c>
       <c r="F377" s="33" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="G377" s="33" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="H377" s="33" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="I377" s="33" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="J377" s="34" t="s">
         <v>132</v>
@@ -21966,7 +21974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+    <row r="381" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A381" s="20">
         <v>374</v>
       </c>
@@ -21983,16 +21991,16 @@
         <v>783</v>
       </c>
       <c r="F381" s="33" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="G381" s="33" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="H381" s="33" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="I381" s="33" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="J381" s="34" t="s">
         <v>132</v>
@@ -22044,7 +22052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="14.25" customHeight="1">
+    <row r="383" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A383" s="20">
         <v>376</v>
       </c>
@@ -22068,7 +22076,7 @@
         <v>841</v>
       </c>
       <c r="K383" s="34" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
@@ -22093,7 +22101,7 @@
       <c r="M384" s="13"/>
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
-      <c r="P384" s="13"/>
+      <c r="P384" s="15"/>
       <c r="Q384" s="13"/>
       <c r="R384" s="14"/>
       <c r="S384" s="2"/>
@@ -22110,7 +22118,7 @@
       <c r="M385" s="13"/>
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
-      <c r="P385" s="13"/>
+      <c r="P385" s="15"/>
       <c r="Q385" s="13"/>
       <c r="R385" s="14"/>
       <c r="S385" s="2"/>
@@ -22127,7 +22135,7 @@
       <c r="M386" s="13"/>
       <c r="N386" s="13"/>
       <c r="O386" s="13"/>
-      <c r="P386" s="13"/>
+      <c r="P386" s="15"/>
       <c r="Q386" s="13"/>
       <c r="R386" s="14"/>
       <c r="S386" s="2"/>
@@ -22144,7 +22152,7 @@
       <c r="M387" s="13"/>
       <c r="N387" s="13"/>
       <c r="O387" s="13"/>
-      <c r="P387" s="13"/>
+      <c r="P387" s="15"/>
       <c r="Q387" s="13"/>
       <c r="R387" s="14"/>
       <c r="S387" s="2"/>
@@ -22161,7 +22169,7 @@
       <c r="M388" s="13"/>
       <c r="N388" s="13"/>
       <c r="O388" s="13"/>
-      <c r="P388" s="13"/>
+      <c r="P388" s="15"/>
       <c r="Q388" s="13"/>
       <c r="R388" s="14"/>
       <c r="S388" s="2"/>
@@ -22178,7 +22186,7 @@
       <c r="M389" s="13"/>
       <c r="N389" s="13"/>
       <c r="O389" s="13"/>
-      <c r="P389" s="13"/>
+      <c r="P389" s="15"/>
       <c r="Q389" s="13"/>
       <c r="R389" s="14"/>
       <c r="S389" s="2"/>
@@ -22195,7 +22203,7 @@
       <c r="M390" s="13"/>
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
-      <c r="P390" s="13"/>
+      <c r="P390" s="15"/>
       <c r="Q390" s="13"/>
       <c r="R390" s="14"/>
       <c r="S390" s="2"/>
@@ -22212,7 +22220,7 @@
       <c r="M391" s="13"/>
       <c r="N391" s="13"/>
       <c r="O391" s="13"/>
-      <c r="P391" s="13"/>
+      <c r="P391" s="15"/>
       <c r="Q391" s="13"/>
       <c r="R391" s="14"/>
       <c r="S391" s="2"/>
@@ -22229,7 +22237,7 @@
       <c r="M392" s="13"/>
       <c r="N392" s="13"/>
       <c r="O392" s="13"/>
-      <c r="P392" s="13"/>
+      <c r="P392" s="15"/>
       <c r="Q392" s="13"/>
       <c r="R392" s="14"/>
       <c r="S392" s="2"/>
@@ -22246,7 +22254,7 @@
       <c r="M393" s="13"/>
       <c r="N393" s="13"/>
       <c r="O393" s="13"/>
-      <c r="P393" s="13"/>
+      <c r="P393" s="15"/>
       <c r="Q393" s="13"/>
       <c r="R393" s="14"/>
       <c r="S393" s="2"/>
@@ -22263,7 +22271,7 @@
       <c r="M394" s="13"/>
       <c r="N394" s="13"/>
       <c r="O394" s="13"/>
-      <c r="P394" s="13"/>
+      <c r="P394" s="15"/>
       <c r="Q394" s="13"/>
       <c r="R394" s="14"/>
       <c r="S394" s="2"/>
@@ -22280,7 +22288,7 @@
       <c r="M395" s="13"/>
       <c r="N395" s="13"/>
       <c r="O395" s="13"/>
-      <c r="P395" s="13"/>
+      <c r="P395" s="15"/>
       <c r="Q395" s="13"/>
       <c r="R395" s="14"/>
       <c r="S395" s="2"/>
@@ -22297,7 +22305,7 @@
       <c r="M396" s="13"/>
       <c r="N396" s="13"/>
       <c r="O396" s="13"/>
-      <c r="P396" s="13"/>
+      <c r="P396" s="15"/>
       <c r="Q396" s="13"/>
       <c r="R396" s="14"/>
       <c r="S396" s="2"/>
@@ -22314,7 +22322,7 @@
       <c r="M397" s="13"/>
       <c r="N397" s="13"/>
       <c r="O397" s="13"/>
-      <c r="P397" s="13"/>
+      <c r="P397" s="15"/>
       <c r="Q397" s="13"/>
       <c r="R397" s="14"/>
       <c r="S397" s="2"/>
@@ -22331,7 +22339,7 @@
       <c r="M398" s="13"/>
       <c r="N398" s="13"/>
       <c r="O398" s="13"/>
-      <c r="P398" s="13"/>
+      <c r="P398" s="15"/>
       <c r="Q398" s="13"/>
       <c r="R398" s="14"/>
       <c r="S398" s="2"/>
@@ -22348,7 +22356,7 @@
       <c r="M399" s="13"/>
       <c r="N399" s="13"/>
       <c r="O399" s="13"/>
-      <c r="P399" s="13"/>
+      <c r="P399" s="15"/>
       <c r="Q399" s="13"/>
       <c r="R399" s="14"/>
       <c r="S399" s="2"/>
@@ -22365,7 +22373,7 @@
       <c r="M400" s="13"/>
       <c r="N400" s="13"/>
       <c r="O400" s="13"/>
-      <c r="P400" s="13"/>
+      <c r="P400" s="15"/>
       <c r="Q400" s="13"/>
       <c r="R400" s="14"/>
       <c r="S400" s="2"/>
@@ -22382,7 +22390,7 @@
       <c r="M401" s="13"/>
       <c r="N401" s="13"/>
       <c r="O401" s="13"/>
-      <c r="P401" s="13"/>
+      <c r="P401" s="15"/>
       <c r="Q401" s="13"/>
       <c r="R401" s="14"/>
       <c r="S401" s="2"/>
@@ -22399,7 +22407,7 @@
       <c r="M402" s="13"/>
       <c r="N402" s="13"/>
       <c r="O402" s="13"/>
-      <c r="P402" s="13"/>
+      <c r="P402" s="15"/>
       <c r="Q402" s="13"/>
       <c r="R402" s="14"/>
       <c r="S402" s="2"/>
@@ -22416,7 +22424,7 @@
       <c r="M403" s="13"/>
       <c r="N403" s="13"/>
       <c r="O403" s="13"/>
-      <c r="P403" s="13"/>
+      <c r="P403" s="15"/>
       <c r="Q403" s="13"/>
       <c r="R403" s="14"/>
       <c r="S403" s="2"/>
@@ -22433,7 +22441,7 @@
       <c r="M404" s="13"/>
       <c r="N404" s="13"/>
       <c r="O404" s="13"/>
-      <c r="P404" s="13"/>
+      <c r="P404" s="15"/>
       <c r="Q404" s="13"/>
       <c r="R404" s="14"/>
       <c r="S404" s="2"/>
@@ -22450,7 +22458,7 @@
       <c r="M405" s="13"/>
       <c r="N405" s="13"/>
       <c r="O405" s="13"/>
-      <c r="P405" s="13"/>
+      <c r="P405" s="15"/>
       <c r="Q405" s="13"/>
       <c r="R405" s="14"/>
       <c r="S405" s="2"/>
@@ -22467,7 +22475,7 @@
       <c r="M406" s="13"/>
       <c r="N406" s="13"/>
       <c r="O406" s="13"/>
-      <c r="P406" s="13"/>
+      <c r="P406" s="15"/>
       <c r="Q406" s="13"/>
       <c r="R406" s="14"/>
       <c r="S406" s="2"/>
@@ -22484,7 +22492,7 @@
       <c r="M407" s="13"/>
       <c r="N407" s="13"/>
       <c r="O407" s="13"/>
-      <c r="P407" s="13"/>
+      <c r="P407" s="15"/>
       <c r="Q407" s="13"/>
       <c r="R407" s="14"/>
       <c r="S407" s="2"/>
@@ -22501,7 +22509,7 @@
       <c r="M408" s="13"/>
       <c r="N408" s="13"/>
       <c r="O408" s="13"/>
-      <c r="P408" s="13"/>
+      <c r="P408" s="15"/>
       <c r="Q408" s="13"/>
       <c r="R408" s="14"/>
       <c r="S408" s="2"/>
@@ -22518,7 +22526,7 @@
       <c r="M409" s="13"/>
       <c r="N409" s="13"/>
       <c r="O409" s="13"/>
-      <c r="P409" s="13"/>
+      <c r="P409" s="15"/>
       <c r="Q409" s="13"/>
       <c r="R409" s="14"/>
       <c r="S409" s="2"/>
@@ -22535,7 +22543,7 @@
       <c r="M410" s="13"/>
       <c r="N410" s="13"/>
       <c r="O410" s="13"/>
-      <c r="P410" s="13"/>
+      <c r="P410" s="15"/>
       <c r="Q410" s="13"/>
       <c r="R410" s="14"/>
       <c r="S410" s="2"/>
@@ -22552,7 +22560,7 @@
       <c r="M411" s="13"/>
       <c r="N411" s="13"/>
       <c r="O411" s="13"/>
-      <c r="P411" s="13"/>
+      <c r="P411" s="15"/>
       <c r="Q411" s="13"/>
       <c r="R411" s="14"/>
       <c r="S411" s="2"/>
@@ -22569,7 +22577,7 @@
       <c r="M412" s="13"/>
       <c r="N412" s="13"/>
       <c r="O412" s="13"/>
-      <c r="P412" s="13"/>
+      <c r="P412" s="15"/>
       <c r="Q412" s="13"/>
       <c r="R412" s="14"/>
       <c r="S412" s="2"/>
@@ -22586,7 +22594,7 @@
       <c r="M413" s="13"/>
       <c r="N413" s="13"/>
       <c r="O413" s="13"/>
-      <c r="P413" s="13"/>
+      <c r="P413" s="15"/>
       <c r="Q413" s="13"/>
       <c r="R413" s="14"/>
       <c r="S413" s="2"/>
@@ -22603,7 +22611,7 @@
       <c r="M414" s="13"/>
       <c r="N414" s="13"/>
       <c r="O414" s="13"/>
-      <c r="P414" s="13"/>
+      <c r="P414" s="15"/>
       <c r="Q414" s="13"/>
       <c r="R414" s="14"/>
       <c r="S414" s="2"/>
@@ -22620,7 +22628,7 @@
       <c r="M415" s="13"/>
       <c r="N415" s="13"/>
       <c r="O415" s="13"/>
-      <c r="P415" s="13"/>
+      <c r="P415" s="15"/>
       <c r="Q415" s="13"/>
       <c r="R415" s="14"/>
       <c r="S415" s="2"/>
@@ -22637,7 +22645,7 @@
       <c r="M416" s="13"/>
       <c r="N416" s="13"/>
       <c r="O416" s="13"/>
-      <c r="P416" s="13"/>
+      <c r="P416" s="15"/>
       <c r="Q416" s="13"/>
       <c r="R416" s="14"/>
       <c r="S416" s="2"/>
@@ -22654,7 +22662,7 @@
       <c r="M417" s="13"/>
       <c r="N417" s="13"/>
       <c r="O417" s="13"/>
-      <c r="P417" s="13"/>
+      <c r="P417" s="15"/>
       <c r="Q417" s="13"/>
       <c r="R417" s="14"/>
       <c r="S417" s="2"/>
@@ -22671,7 +22679,7 @@
       <c r="M418" s="13"/>
       <c r="N418" s="13"/>
       <c r="O418" s="13"/>
-      <c r="P418" s="13"/>
+      <c r="P418" s="15"/>
       <c r="Q418" s="13"/>
       <c r="R418" s="14"/>
       <c r="S418" s="2"/>
@@ -22688,7 +22696,7 @@
       <c r="M419" s="13"/>
       <c r="N419" s="13"/>
       <c r="O419" s="13"/>
-      <c r="P419" s="13"/>
+      <c r="P419" s="15"/>
       <c r="Q419" s="13"/>
       <c r="R419" s="14"/>
       <c r="S419" s="2"/>
@@ -22705,7 +22713,7 @@
       <c r="M420" s="13"/>
       <c r="N420" s="13"/>
       <c r="O420" s="13"/>
-      <c r="P420" s="13"/>
+      <c r="P420" s="15"/>
       <c r="Q420" s="13"/>
       <c r="R420" s="14"/>
       <c r="S420" s="2"/>
@@ -22722,7 +22730,7 @@
       <c r="M421" s="13"/>
       <c r="N421" s="13"/>
       <c r="O421" s="13"/>
-      <c r="P421" s="13"/>
+      <c r="P421" s="15"/>
       <c r="Q421" s="13"/>
       <c r="R421" s="14"/>
       <c r="S421" s="2"/>
@@ -22739,7 +22747,7 @@
       <c r="M422" s="13"/>
       <c r="N422" s="13"/>
       <c r="O422" s="13"/>
-      <c r="P422" s="13"/>
+      <c r="P422" s="15"/>
       <c r="Q422" s="13"/>
       <c r="R422" s="14"/>
       <c r="S422" s="2"/>
@@ -22756,7 +22764,7 @@
       <c r="M423" s="13"/>
       <c r="N423" s="13"/>
       <c r="O423" s="13"/>
-      <c r="P423" s="13"/>
+      <c r="P423" s="15"/>
       <c r="Q423" s="13"/>
       <c r="R423" s="14"/>
       <c r="S423" s="2"/>
@@ -22773,7 +22781,7 @@
       <c r="M424" s="13"/>
       <c r="N424" s="13"/>
       <c r="O424" s="13"/>
-      <c r="P424" s="13"/>
+      <c r="P424" s="15"/>
       <c r="Q424" s="13"/>
       <c r="R424" s="14"/>
       <c r="S424" s="2"/>
@@ -22790,7 +22798,7 @@
       <c r="M425" s="13"/>
       <c r="N425" s="13"/>
       <c r="O425" s="13"/>
-      <c r="P425" s="13"/>
+      <c r="P425" s="15"/>
       <c r="Q425" s="13"/>
       <c r="R425" s="14"/>
       <c r="S425" s="2"/>
@@ -22807,7 +22815,7 @@
       <c r="M426" s="13"/>
       <c r="N426" s="13"/>
       <c r="O426" s="13"/>
-      <c r="P426" s="13"/>
+      <c r="P426" s="15"/>
       <c r="Q426" s="13"/>
       <c r="R426" s="14"/>
       <c r="S426" s="2"/>
@@ -22824,7 +22832,7 @@
       <c r="M427" s="13"/>
       <c r="N427" s="13"/>
       <c r="O427" s="13"/>
-      <c r="P427" s="13"/>
+      <c r="P427" s="15"/>
       <c r="Q427" s="13"/>
       <c r="R427" s="14"/>
       <c r="S427" s="2"/>
@@ -22841,7 +22849,7 @@
       <c r="M428" s="13"/>
       <c r="N428" s="13"/>
       <c r="O428" s="13"/>
-      <c r="P428" s="13"/>
+      <c r="P428" s="15"/>
       <c r="Q428" s="13"/>
       <c r="R428" s="14"/>
       <c r="S428" s="2"/>
@@ -22858,7 +22866,7 @@
       <c r="M429" s="13"/>
       <c r="N429" s="13"/>
       <c r="O429" s="13"/>
-      <c r="P429" s="13"/>
+      <c r="P429" s="15"/>
       <c r="Q429" s="13"/>
       <c r="R429" s="14"/>
       <c r="S429" s="2"/>
@@ -22875,7 +22883,7 @@
       <c r="M430" s="13"/>
       <c r="N430" s="13"/>
       <c r="O430" s="13"/>
-      <c r="P430" s="13"/>
+      <c r="P430" s="15"/>
       <c r="Q430" s="13"/>
       <c r="R430" s="14"/>
       <c r="S430" s="2"/>
@@ -22892,7 +22900,7 @@
       <c r="M431" s="13"/>
       <c r="N431" s="13"/>
       <c r="O431" s="13"/>
-      <c r="P431" s="13"/>
+      <c r="P431" s="15"/>
       <c r="Q431" s="13"/>
       <c r="R431" s="14"/>
       <c r="S431" s="2"/>
@@ -22909,7 +22917,7 @@
       <c r="M432" s="13"/>
       <c r="N432" s="13"/>
       <c r="O432" s="13"/>
-      <c r="P432" s="13"/>
+      <c r="P432" s="15"/>
       <c r="Q432" s="13"/>
       <c r="R432" s="14"/>
       <c r="S432" s="2"/>
@@ -22926,7 +22934,7 @@
       <c r="M433" s="13"/>
       <c r="N433" s="13"/>
       <c r="O433" s="13"/>
-      <c r="P433" s="13"/>
+      <c r="P433" s="15"/>
       <c r="Q433" s="13"/>
       <c r="R433" s="14"/>
       <c r="S433" s="2"/>
@@ -22943,7 +22951,7 @@
       <c r="M434" s="13"/>
       <c r="N434" s="13"/>
       <c r="O434" s="13"/>
-      <c r="P434" s="13"/>
+      <c r="P434" s="15"/>
       <c r="Q434" s="13"/>
       <c r="R434" s="14"/>
       <c r="S434" s="2"/>
@@ -22960,7 +22968,7 @@
       <c r="M435" s="13"/>
       <c r="N435" s="13"/>
       <c r="O435" s="13"/>
-      <c r="P435" s="13"/>
+      <c r="P435" s="15"/>
       <c r="Q435" s="13"/>
       <c r="R435" s="14"/>
       <c r="S435" s="2"/>
@@ -22977,7 +22985,7 @@
       <c r="M436" s="13"/>
       <c r="N436" s="13"/>
       <c r="O436" s="13"/>
-      <c r="P436" s="13"/>
+      <c r="P436" s="15"/>
       <c r="Q436" s="13"/>
       <c r="R436" s="14"/>
       <c r="S436" s="2"/>
@@ -22994,7 +23002,7 @@
       <c r="M437" s="13"/>
       <c r="N437" s="13"/>
       <c r="O437" s="13"/>
-      <c r="P437" s="13"/>
+      <c r="P437" s="15"/>
       <c r="Q437" s="13"/>
       <c r="R437" s="14"/>
       <c r="S437" s="2"/>
@@ -23011,7 +23019,7 @@
       <c r="M438" s="13"/>
       <c r="N438" s="13"/>
       <c r="O438" s="13"/>
-      <c r="P438" s="13"/>
+      <c r="P438" s="15"/>
       <c r="Q438" s="13"/>
       <c r="R438" s="14"/>
       <c r="S438" s="2"/>
@@ -23028,7 +23036,7 @@
       <c r="M439" s="13"/>
       <c r="N439" s="13"/>
       <c r="O439" s="13"/>
-      <c r="P439" s="13"/>
+      <c r="P439" s="15"/>
       <c r="Q439" s="13"/>
       <c r="R439" s="14"/>
       <c r="S439" s="2"/>
@@ -23045,7 +23053,7 @@
       <c r="M440" s="13"/>
       <c r="N440" s="13"/>
       <c r="O440" s="13"/>
-      <c r="P440" s="13"/>
+      <c r="P440" s="15"/>
       <c r="Q440" s="13"/>
       <c r="R440" s="14"/>
       <c r="S440" s="2"/>
@@ -23062,7 +23070,7 @@
       <c r="M441" s="13"/>
       <c r="N441" s="13"/>
       <c r="O441" s="13"/>
-      <c r="P441" s="13"/>
+      <c r="P441" s="15"/>
       <c r="Q441" s="13"/>
       <c r="R441" s="14"/>
       <c r="S441" s="2"/>
@@ -23079,7 +23087,7 @@
       <c r="M442" s="13"/>
       <c r="N442" s="13"/>
       <c r="O442" s="13"/>
-      <c r="P442" s="13"/>
+      <c r="P442" s="15"/>
       <c r="Q442" s="13"/>
       <c r="R442" s="14"/>
       <c r="S442" s="2"/>
@@ -23096,7 +23104,7 @@
       <c r="M443" s="13"/>
       <c r="N443" s="13"/>
       <c r="O443" s="13"/>
-      <c r="P443" s="13"/>
+      <c r="P443" s="15"/>
       <c r="Q443" s="13"/>
       <c r="R443" s="14"/>
       <c r="S443" s="2"/>
@@ -23113,7 +23121,7 @@
       <c r="M444" s="13"/>
       <c r="N444" s="13"/>
       <c r="O444" s="13"/>
-      <c r="P444" s="13"/>
+      <c r="P444" s="15"/>
       <c r="Q444" s="13"/>
       <c r="R444" s="14"/>
       <c r="S444" s="2"/>
@@ -23130,7 +23138,7 @@
       <c r="M445" s="13"/>
       <c r="N445" s="13"/>
       <c r="O445" s="13"/>
-      <c r="P445" s="13"/>
+      <c r="P445" s="15"/>
       <c r="Q445" s="13"/>
       <c r="R445" s="14"/>
       <c r="S445" s="2"/>
@@ -23147,7 +23155,7 @@
       <c r="M446" s="13"/>
       <c r="N446" s="13"/>
       <c r="O446" s="13"/>
-      <c r="P446" s="13"/>
+      <c r="P446" s="15"/>
       <c r="Q446" s="13"/>
       <c r="R446" s="14"/>
       <c r="S446" s="2"/>
@@ -23164,7 +23172,7 @@
       <c r="M447" s="13"/>
       <c r="N447" s="13"/>
       <c r="O447" s="13"/>
-      <c r="P447" s="13"/>
+      <c r="P447" s="15"/>
       <c r="Q447" s="13"/>
       <c r="R447" s="14"/>
       <c r="S447" s="2"/>
@@ -23181,7 +23189,7 @@
       <c r="M448" s="13"/>
       <c r="N448" s="13"/>
       <c r="O448" s="13"/>
-      <c r="P448" s="13"/>
+      <c r="P448" s="15"/>
       <c r="Q448" s="13"/>
       <c r="R448" s="14"/>
       <c r="S448" s="2"/>
@@ -23198,7 +23206,7 @@
       <c r="M449" s="13"/>
       <c r="N449" s="13"/>
       <c r="O449" s="13"/>
-      <c r="P449" s="13"/>
+      <c r="P449" s="15"/>
       <c r="Q449" s="13"/>
       <c r="R449" s="14"/>
       <c r="S449" s="2"/>
@@ -23215,7 +23223,7 @@
       <c r="M450" s="13"/>
       <c r="N450" s="13"/>
       <c r="O450" s="13"/>
-      <c r="P450" s="13"/>
+      <c r="P450" s="15"/>
       <c r="Q450" s="13"/>
       <c r="R450" s="14"/>
       <c r="S450" s="2"/>
@@ -23232,7 +23240,7 @@
       <c r="M451" s="13"/>
       <c r="N451" s="13"/>
       <c r="O451" s="13"/>
-      <c r="P451" s="13"/>
+      <c r="P451" s="15"/>
       <c r="Q451" s="13"/>
       <c r="R451" s="14"/>
       <c r="S451" s="2"/>
@@ -23249,7 +23257,7 @@
       <c r="M452" s="13"/>
       <c r="N452" s="13"/>
       <c r="O452" s="13"/>
-      <c r="P452" s="13"/>
+      <c r="P452" s="15"/>
       <c r="Q452" s="13"/>
       <c r="R452" s="14"/>
       <c r="S452" s="2"/>
@@ -23266,7 +23274,7 @@
       <c r="M453" s="13"/>
       <c r="N453" s="13"/>
       <c r="O453" s="13"/>
-      <c r="P453" s="13"/>
+      <c r="P453" s="15"/>
       <c r="Q453" s="13"/>
       <c r="R453" s="14"/>
       <c r="S453" s="2"/>
@@ -23283,7 +23291,7 @@
       <c r="M454" s="13"/>
       <c r="N454" s="13"/>
       <c r="O454" s="13"/>
-      <c r="P454" s="13"/>
+      <c r="P454" s="15"/>
       <c r="Q454" s="13"/>
       <c r="R454" s="14"/>
       <c r="S454" s="2"/>
@@ -23300,7 +23308,7 @@
       <c r="M455" s="13"/>
       <c r="N455" s="13"/>
       <c r="O455" s="13"/>
-      <c r="P455" s="13"/>
+      <c r="P455" s="15"/>
       <c r="Q455" s="13"/>
       <c r="R455" s="14"/>
       <c r="S455" s="2"/>
@@ -23317,7 +23325,7 @@
       <c r="M456" s="13"/>
       <c r="N456" s="13"/>
       <c r="O456" s="13"/>
-      <c r="P456" s="13"/>
+      <c r="P456" s="15"/>
       <c r="Q456" s="13"/>
       <c r="R456" s="14"/>
       <c r="S456" s="2"/>
@@ -23334,7 +23342,7 @@
       <c r="M457" s="13"/>
       <c r="N457" s="13"/>
       <c r="O457" s="13"/>
-      <c r="P457" s="13"/>
+      <c r="P457" s="15"/>
       <c r="Q457" s="13"/>
       <c r="R457" s="14"/>
       <c r="S457" s="2"/>
@@ -23351,7 +23359,7 @@
       <c r="M458" s="13"/>
       <c r="N458" s="13"/>
       <c r="O458" s="13"/>
-      <c r="P458" s="13"/>
+      <c r="P458" s="15"/>
       <c r="Q458" s="13"/>
       <c r="R458" s="14"/>
       <c r="S458" s="2"/>
@@ -23368,7 +23376,7 @@
       <c r="M459" s="13"/>
       <c r="N459" s="13"/>
       <c r="O459" s="13"/>
-      <c r="P459" s="13"/>
+      <c r="P459" s="15"/>
       <c r="Q459" s="13"/>
       <c r="R459" s="14"/>
       <c r="S459" s="2"/>
@@ -23385,7 +23393,7 @@
       <c r="M460" s="13"/>
       <c r="N460" s="13"/>
       <c r="O460" s="13"/>
-      <c r="P460" s="13"/>
+      <c r="P460" s="15"/>
       <c r="Q460" s="13"/>
       <c r="R460" s="14"/>
       <c r="S460" s="2"/>
@@ -23402,7 +23410,7 @@
       <c r="M461" s="13"/>
       <c r="N461" s="13"/>
       <c r="O461" s="13"/>
-      <c r="P461" s="13"/>
+      <c r="P461" s="15"/>
       <c r="Q461" s="13"/>
       <c r="R461" s="14"/>
       <c r="S461" s="2"/>
@@ -23419,7 +23427,7 @@
       <c r="M462" s="13"/>
       <c r="N462" s="13"/>
       <c r="O462" s="13"/>
-      <c r="P462" s="13"/>
+      <c r="P462" s="15"/>
       <c r="Q462" s="13"/>
       <c r="R462" s="14"/>
       <c r="S462" s="2"/>
@@ -23436,7 +23444,7 @@
       <c r="M463" s="13"/>
       <c r="N463" s="13"/>
       <c r="O463" s="13"/>
-      <c r="P463" s="13"/>
+      <c r="P463" s="15"/>
       <c r="Q463" s="13"/>
       <c r="R463" s="14"/>
       <c r="S463" s="2"/>
@@ -23453,7 +23461,7 @@
       <c r="M464" s="13"/>
       <c r="N464" s="13"/>
       <c r="O464" s="13"/>
-      <c r="P464" s="13"/>
+      <c r="P464" s="15"/>
       <c r="Q464" s="13"/>
       <c r="R464" s="14"/>
       <c r="S464" s="2"/>
@@ -23470,7 +23478,7 @@
       <c r="M465" s="13"/>
       <c r="N465" s="13"/>
       <c r="O465" s="13"/>
-      <c r="P465" s="13"/>
+      <c r="P465" s="15"/>
       <c r="Q465" s="13"/>
       <c r="R465" s="14"/>
       <c r="S465" s="2"/>
@@ -23487,7 +23495,7 @@
       <c r="M466" s="13"/>
       <c r="N466" s="13"/>
       <c r="O466" s="13"/>
-      <c r="P466" s="13"/>
+      <c r="P466" s="15"/>
       <c r="Q466" s="13"/>
       <c r="R466" s="14"/>
       <c r="S466" s="2"/>
@@ -23504,7 +23512,7 @@
       <c r="M467" s="13"/>
       <c r="N467" s="13"/>
       <c r="O467" s="13"/>
-      <c r="P467" s="13"/>
+      <c r="P467" s="15"/>
       <c r="Q467" s="13"/>
       <c r="R467" s="14"/>
       <c r="S467" s="2"/>
@@ -23521,7 +23529,7 @@
       <c r="M468" s="13"/>
       <c r="N468" s="13"/>
       <c r="O468" s="13"/>
-      <c r="P468" s="13"/>
+      <c r="P468" s="15"/>
       <c r="Q468" s="13"/>
       <c r="R468" s="14"/>
       <c r="S468" s="2"/>
@@ -23538,7 +23546,7 @@
       <c r="M469" s="13"/>
       <c r="N469" s="13"/>
       <c r="O469" s="13"/>
-      <c r="P469" s="13"/>
+      <c r="P469" s="15"/>
       <c r="Q469" s="13"/>
       <c r="R469" s="14"/>
       <c r="S469" s="2"/>
@@ -23555,7 +23563,7 @@
       <c r="M470" s="13"/>
       <c r="N470" s="13"/>
       <c r="O470" s="13"/>
-      <c r="P470" s="13"/>
+      <c r="P470" s="15"/>
       <c r="Q470" s="13"/>
       <c r="R470" s="14"/>
       <c r="S470" s="2"/>
@@ -23572,7 +23580,7 @@
       <c r="M471" s="13"/>
       <c r="N471" s="13"/>
       <c r="O471" s="13"/>
-      <c r="P471" s="13"/>
+      <c r="P471" s="15"/>
       <c r="Q471" s="13"/>
       <c r="R471" s="14"/>
       <c r="S471" s="2"/>
@@ -23589,7 +23597,7 @@
       <c r="M472" s="13"/>
       <c r="N472" s="13"/>
       <c r="O472" s="13"/>
-      <c r="P472" s="13"/>
+      <c r="P472" s="15"/>
       <c r="Q472" s="13"/>
       <c r="R472" s="14"/>
       <c r="S472" s="2"/>
@@ -23606,7 +23614,7 @@
       <c r="M473" s="13"/>
       <c r="N473" s="13"/>
       <c r="O473" s="13"/>
-      <c r="P473" s="13"/>
+      <c r="P473" s="15"/>
       <c r="Q473" s="13"/>
       <c r="R473" s="14"/>
       <c r="S473" s="2"/>
@@ -23623,7 +23631,7 @@
       <c r="M474" s="13"/>
       <c r="N474" s="13"/>
       <c r="O474" s="13"/>
-      <c r="P474" s="13"/>
+      <c r="P474" s="15"/>
       <c r="Q474" s="13"/>
       <c r="R474" s="14"/>
       <c r="S474" s="2"/>
@@ -23640,7 +23648,7 @@
       <c r="M475" s="13"/>
       <c r="N475" s="13"/>
       <c r="O475" s="13"/>
-      <c r="P475" s="13"/>
+      <c r="P475" s="15"/>
       <c r="Q475" s="13"/>
       <c r="R475" s="14"/>
       <c r="S475" s="2"/>
@@ -23657,7 +23665,7 @@
       <c r="M476" s="13"/>
       <c r="N476" s="13"/>
       <c r="O476" s="13"/>
-      <c r="P476" s="13"/>
+      <c r="P476" s="15"/>
       <c r="Q476" s="13"/>
       <c r="R476" s="14"/>
       <c r="S476" s="2"/>
@@ -23674,7 +23682,7 @@
       <c r="M477" s="13"/>
       <c r="N477" s="13"/>
       <c r="O477" s="13"/>
-      <c r="P477" s="13"/>
+      <c r="P477" s="15"/>
       <c r="Q477" s="13"/>
       <c r="R477" s="14"/>
       <c r="S477" s="2"/>
@@ -23691,7 +23699,7 @@
       <c r="M478" s="13"/>
       <c r="N478" s="13"/>
       <c r="O478" s="13"/>
-      <c r="P478" s="13"/>
+      <c r="P478" s="15"/>
       <c r="Q478" s="13"/>
       <c r="R478" s="14"/>
       <c r="S478" s="2"/>
@@ -23708,7 +23716,7 @@
       <c r="M479" s="13"/>
       <c r="N479" s="13"/>
       <c r="O479" s="13"/>
-      <c r="P479" s="13"/>
+      <c r="P479" s="15"/>
       <c r="Q479" s="13"/>
       <c r="R479" s="14"/>
       <c r="S479" s="2"/>
@@ -23725,7 +23733,7 @@
       <c r="M480" s="13"/>
       <c r="N480" s="13"/>
       <c r="O480" s="13"/>
-      <c r="P480" s="13"/>
+      <c r="P480" s="15"/>
       <c r="Q480" s="13"/>
       <c r="R480" s="14"/>
       <c r="S480" s="2"/>
@@ -23742,7 +23750,7 @@
       <c r="M481" s="13"/>
       <c r="N481" s="13"/>
       <c r="O481" s="13"/>
-      <c r="P481" s="13"/>
+      <c r="P481" s="15"/>
       <c r="Q481" s="13"/>
       <c r="R481" s="14"/>
       <c r="S481" s="2"/>
@@ -23759,7 +23767,7 @@
       <c r="M482" s="13"/>
       <c r="N482" s="13"/>
       <c r="O482" s="13"/>
-      <c r="P482" s="13"/>
+      <c r="P482" s="15"/>
       <c r="Q482" s="13"/>
       <c r="R482" s="14"/>
       <c r="S482" s="2"/>
@@ -23776,7 +23784,7 @@
       <c r="M483" s="13"/>
       <c r="N483" s="13"/>
       <c r="O483" s="13"/>
-      <c r="P483" s="13"/>
+      <c r="P483" s="15"/>
       <c r="Q483" s="13"/>
       <c r="R483" s="14"/>
       <c r="S483" s="2"/>
@@ -23793,7 +23801,7 @@
       <c r="M484" s="13"/>
       <c r="N484" s="13"/>
       <c r="O484" s="13"/>
-      <c r="P484" s="13"/>
+      <c r="P484" s="15"/>
       <c r="Q484" s="13"/>
       <c r="R484" s="14"/>
       <c r="S484" s="2"/>
@@ -23810,7 +23818,7 @@
       <c r="M485" s="13"/>
       <c r="N485" s="13"/>
       <c r="O485" s="13"/>
-      <c r="P485" s="13"/>
+      <c r="P485" s="15"/>
       <c r="Q485" s="13"/>
       <c r="R485" s="14"/>
       <c r="S485" s="2"/>
@@ -23827,7 +23835,7 @@
       <c r="M486" s="13"/>
       <c r="N486" s="13"/>
       <c r="O486" s="13"/>
-      <c r="P486" s="13"/>
+      <c r="P486" s="15"/>
       <c r="Q486" s="13"/>
       <c r="R486" s="14"/>
       <c r="S486" s="2"/>
@@ -23844,7 +23852,7 @@
       <c r="M487" s="13"/>
       <c r="N487" s="13"/>
       <c r="O487" s="13"/>
-      <c r="P487" s="13"/>
+      <c r="P487" s="15"/>
       <c r="Q487" s="13"/>
       <c r="R487" s="14"/>
       <c r="S487" s="2"/>
@@ -23861,7 +23869,7 @@
       <c r="M488" s="13"/>
       <c r="N488" s="13"/>
       <c r="O488" s="13"/>
-      <c r="P488" s="13"/>
+      <c r="P488" s="15"/>
       <c r="Q488" s="13"/>
       <c r="R488" s="14"/>
       <c r="S488" s="2"/>
@@ -23878,7 +23886,7 @@
       <c r="M489" s="13"/>
       <c r="N489" s="13"/>
       <c r="O489" s="13"/>
-      <c r="P489" s="13"/>
+      <c r="P489" s="15"/>
       <c r="Q489" s="13"/>
       <c r="R489" s="14"/>
       <c r="S489" s="2"/>
@@ -23895,7 +23903,7 @@
       <c r="M490" s="13"/>
       <c r="N490" s="13"/>
       <c r="O490" s="13"/>
-      <c r="P490" s="13"/>
+      <c r="P490" s="15"/>
       <c r="Q490" s="13"/>
       <c r="R490" s="14"/>
       <c r="S490" s="2"/>
@@ -23912,7 +23920,7 @@
       <c r="M491" s="13"/>
       <c r="N491" s="13"/>
       <c r="O491" s="13"/>
-      <c r="P491" s="13"/>
+      <c r="P491" s="15"/>
       <c r="Q491" s="13"/>
       <c r="R491" s="14"/>
       <c r="S491" s="2"/>
@@ -23929,7 +23937,7 @@
       <c r="M492" s="13"/>
       <c r="N492" s="13"/>
       <c r="O492" s="13"/>
-      <c r="P492" s="13"/>
+      <c r="P492" s="15"/>
       <c r="Q492" s="13"/>
       <c r="R492" s="14"/>
       <c r="S492" s="2"/>
@@ -23946,7 +23954,7 @@
       <c r="M493" s="13"/>
       <c r="N493" s="13"/>
       <c r="O493" s="13"/>
-      <c r="P493" s="13"/>
+      <c r="P493" s="15"/>
       <c r="Q493" s="13"/>
       <c r="R493" s="14"/>
       <c r="S493" s="2"/>
@@ -23963,7 +23971,7 @@
       <c r="M494" s="13"/>
       <c r="N494" s="13"/>
       <c r="O494" s="13"/>
-      <c r="P494" s="13"/>
+      <c r="P494" s="15"/>
       <c r="Q494" s="13"/>
       <c r="R494" s="14"/>
       <c r="S494" s="2"/>
@@ -23980,7 +23988,7 @@
       <c r="M495" s="13"/>
       <c r="N495" s="13"/>
       <c r="O495" s="13"/>
-      <c r="P495" s="13"/>
+      <c r="P495" s="15"/>
       <c r="Q495" s="13"/>
       <c r="R495" s="14"/>
       <c r="S495" s="2"/>
@@ -23997,7 +24005,7 @@
       <c r="M496" s="13"/>
       <c r="N496" s="13"/>
       <c r="O496" s="13"/>
-      <c r="P496" s="13"/>
+      <c r="P496" s="15"/>
       <c r="Q496" s="13"/>
       <c r="R496" s="14"/>
       <c r="S496" s="2"/>
@@ -24014,7 +24022,7 @@
       <c r="M497" s="13"/>
       <c r="N497" s="13"/>
       <c r="O497" s="13"/>
-      <c r="P497" s="13"/>
+      <c r="P497" s="15"/>
       <c r="Q497" s="13"/>
       <c r="R497" s="14"/>
       <c r="S497" s="2"/>
@@ -24031,7 +24039,7 @@
       <c r="M498" s="13"/>
       <c r="N498" s="13"/>
       <c r="O498" s="13"/>
-      <c r="P498" s="13"/>
+      <c r="P498" s="15"/>
       <c r="Q498" s="13"/>
       <c r="R498" s="14"/>
       <c r="S498" s="2"/>
@@ -24048,7 +24056,7 @@
       <c r="M499" s="13"/>
       <c r="N499" s="13"/>
       <c r="O499" s="13"/>
-      <c r="P499" s="13"/>
+      <c r="P499" s="15"/>
       <c r="Q499" s="13"/>
       <c r="R499" s="14"/>
       <c r="S499" s="2"/>
@@ -24065,7 +24073,7 @@
       <c r="M500" s="13"/>
       <c r="N500" s="13"/>
       <c r="O500" s="13"/>
-      <c r="P500" s="13"/>
+      <c r="P500" s="15"/>
       <c r="Q500" s="13"/>
       <c r="R500" s="14"/>
       <c r="S500" s="2"/>
@@ -24082,7 +24090,7 @@
       <c r="M501" s="13"/>
       <c r="N501" s="13"/>
       <c r="O501" s="13"/>
-      <c r="P501" s="13"/>
+      <c r="P501" s="15"/>
       <c r="Q501" s="13"/>
       <c r="R501" s="14"/>
       <c r="S501" s="2"/>
@@ -24099,7 +24107,7 @@
       <c r="M502" s="13"/>
       <c r="N502" s="13"/>
       <c r="O502" s="13"/>
-      <c r="P502" s="13"/>
+      <c r="P502" s="15"/>
       <c r="Q502" s="13"/>
       <c r="R502" s="14"/>
       <c r="S502" s="2"/>
@@ -24116,7 +24124,7 @@
       <c r="M503" s="13"/>
       <c r="N503" s="13"/>
       <c r="O503" s="13"/>
-      <c r="P503" s="13"/>
+      <c r="P503" s="15"/>
       <c r="Q503" s="13"/>
       <c r="R503" s="14"/>
       <c r="S503" s="2"/>
@@ -24133,7 +24141,7 @@
       <c r="M504" s="13"/>
       <c r="N504" s="13"/>
       <c r="O504" s="13"/>
-      <c r="P504" s="13"/>
+      <c r="P504" s="15"/>
       <c r="Q504" s="13"/>
       <c r="R504" s="14"/>
       <c r="S504" s="2"/>
@@ -24150,7 +24158,7 @@
       <c r="M505" s="13"/>
       <c r="N505" s="13"/>
       <c r="O505" s="13"/>
-      <c r="P505" s="13"/>
+      <c r="P505" s="15"/>
       <c r="Q505" s="13"/>
       <c r="R505" s="14"/>
       <c r="S505" s="2"/>
@@ -24167,7 +24175,7 @@
       <c r="M506" s="13"/>
       <c r="N506" s="13"/>
       <c r="O506" s="13"/>
-      <c r="P506" s="13"/>
+      <c r="P506" s="15"/>
       <c r="Q506" s="13"/>
       <c r="R506" s="14"/>
       <c r="S506" s="2"/>
@@ -24184,7 +24192,7 @@
       <c r="M507" s="13"/>
       <c r="N507" s="13"/>
       <c r="O507" s="13"/>
-      <c r="P507" s="13"/>
+      <c r="P507" s="15"/>
       <c r="Q507" s="13"/>
       <c r="R507" s="14"/>
       <c r="S507" s="2"/>
@@ -24201,7 +24209,7 @@
       <c r="M508" s="13"/>
       <c r="N508" s="13"/>
       <c r="O508" s="13"/>
-      <c r="P508" s="13"/>
+      <c r="P508" s="15"/>
       <c r="Q508" s="13"/>
       <c r="R508" s="14"/>
       <c r="S508" s="2"/>
@@ -24218,7 +24226,7 @@
       <c r="M509" s="13"/>
       <c r="N509" s="13"/>
       <c r="O509" s="13"/>
-      <c r="P509" s="13"/>
+      <c r="P509" s="15"/>
       <c r="Q509" s="13"/>
       <c r="R509" s="14"/>
       <c r="S509" s="2"/>
@@ -24235,7 +24243,7 @@
       <c r="M510" s="13"/>
       <c r="N510" s="13"/>
       <c r="O510" s="13"/>
-      <c r="P510" s="13"/>
+      <c r="P510" s="15"/>
       <c r="Q510" s="13"/>
       <c r="R510" s="14"/>
       <c r="S510" s="2"/>
@@ -24252,7 +24260,7 @@
       <c r="M511" s="13"/>
       <c r="N511" s="13"/>
       <c r="O511" s="13"/>
-      <c r="P511" s="13"/>
+      <c r="P511" s="15"/>
       <c r="Q511" s="13"/>
       <c r="R511" s="14"/>
       <c r="S511" s="2"/>
@@ -24269,7 +24277,7 @@
       <c r="M512" s="13"/>
       <c r="N512" s="13"/>
       <c r="O512" s="13"/>
-      <c r="P512" s="13"/>
+      <c r="P512" s="15"/>
       <c r="Q512" s="13"/>
       <c r="R512" s="14"/>
       <c r="S512" s="2"/>
@@ -24286,7 +24294,7 @@
       <c r="M513" s="13"/>
       <c r="N513" s="13"/>
       <c r="O513" s="13"/>
-      <c r="P513" s="13"/>
+      <c r="P513" s="15"/>
       <c r="Q513" s="13"/>
       <c r="R513" s="14"/>
       <c r="S513" s="2"/>
@@ -24303,7 +24311,7 @@
       <c r="M514" s="13"/>
       <c r="N514" s="13"/>
       <c r="O514" s="13"/>
-      <c r="P514" s="13"/>
+      <c r="P514" s="15"/>
       <c r="Q514" s="13"/>
       <c r="R514" s="14"/>
       <c r="S514" s="2"/>
@@ -24320,7 +24328,7 @@
       <c r="M515" s="13"/>
       <c r="N515" s="13"/>
       <c r="O515" s="13"/>
-      <c r="P515" s="13"/>
+      <c r="P515" s="15"/>
       <c r="Q515" s="13"/>
       <c r="R515" s="14"/>
       <c r="S515" s="2"/>
@@ -24337,7 +24345,7 @@
       <c r="M516" s="13"/>
       <c r="N516" s="13"/>
       <c r="O516" s="13"/>
-      <c r="P516" s="13"/>
+      <c r="P516" s="15"/>
       <c r="Q516" s="13"/>
       <c r="R516" s="14"/>
       <c r="S516" s="2"/>
@@ -24354,7 +24362,7 @@
       <c r="M517" s="13"/>
       <c r="N517" s="13"/>
       <c r="O517" s="13"/>
-      <c r="P517" s="13"/>
+      <c r="P517" s="15"/>
       <c r="Q517" s="13"/>
       <c r="R517" s="14"/>
       <c r="S517" s="2"/>
@@ -24371,7 +24379,7 @@
       <c r="M518" s="13"/>
       <c r="N518" s="13"/>
       <c r="O518" s="13"/>
-      <c r="P518" s="13"/>
+      <c r="P518" s="15"/>
       <c r="Q518" s="13"/>
       <c r="R518" s="14"/>
       <c r="S518" s="2"/>
@@ -24388,7 +24396,7 @@
       <c r="M519" s="13"/>
       <c r="N519" s="13"/>
       <c r="O519" s="13"/>
-      <c r="P519" s="13"/>
+      <c r="P519" s="15"/>
       <c r="Q519" s="13"/>
       <c r="R519" s="14"/>
       <c r="S519" s="2"/>
@@ -24405,7 +24413,7 @@
       <c r="M520" s="13"/>
       <c r="N520" s="13"/>
       <c r="O520" s="13"/>
-      <c r="P520" s="13"/>
+      <c r="P520" s="15"/>
       <c r="Q520" s="13"/>
       <c r="R520" s="14"/>
       <c r="S520" s="2"/>
@@ -24422,7 +24430,7 @@
       <c r="M521" s="13"/>
       <c r="N521" s="13"/>
       <c r="O521" s="13"/>
-      <c r="P521" s="13"/>
+      <c r="P521" s="15"/>
       <c r="Q521" s="13"/>
       <c r="R521" s="14"/>
       <c r="S521" s="2"/>
@@ -24439,7 +24447,7 @@
       <c r="M522" s="13"/>
       <c r="N522" s="13"/>
       <c r="O522" s="13"/>
-      <c r="P522" s="13"/>
+      <c r="P522" s="15"/>
       <c r="Q522" s="13"/>
       <c r="R522" s="14"/>
       <c r="S522" s="2"/>
@@ -24456,7 +24464,7 @@
       <c r="M523" s="13"/>
       <c r="N523" s="13"/>
       <c r="O523" s="13"/>
-      <c r="P523" s="13"/>
+      <c r="P523" s="15"/>
       <c r="Q523" s="13"/>
       <c r="R523" s="14"/>
       <c r="S523" s="2"/>
@@ -24473,7 +24481,7 @@
       <c r="M524" s="13"/>
       <c r="N524" s="13"/>
       <c r="O524" s="13"/>
-      <c r="P524" s="13"/>
+      <c r="P524" s="15"/>
       <c r="Q524" s="13"/>
       <c r="R524" s="14"/>
       <c r="S524" s="2"/>
@@ -24490,7 +24498,7 @@
       <c r="M525" s="13"/>
       <c r="N525" s="13"/>
       <c r="O525" s="13"/>
-      <c r="P525" s="13"/>
+      <c r="P525" s="15"/>
       <c r="Q525" s="13"/>
       <c r="R525" s="14"/>
       <c r="S525" s="2"/>
@@ -24507,7 +24515,7 @@
       <c r="M526" s="13"/>
       <c r="N526" s="13"/>
       <c r="O526" s="13"/>
-      <c r="P526" s="13"/>
+      <c r="P526" s="15"/>
       <c r="Q526" s="13"/>
       <c r="R526" s="14"/>
       <c r="S526" s="2"/>
@@ -24524,7 +24532,7 @@
       <c r="M527" s="13"/>
       <c r="N527" s="13"/>
       <c r="O527" s="13"/>
-      <c r="P527" s="13"/>
+      <c r="P527" s="15"/>
       <c r="Q527" s="13"/>
       <c r="R527" s="14"/>
       <c r="S527" s="2"/>
@@ -24541,7 +24549,7 @@
       <c r="M528" s="13"/>
       <c r="N528" s="13"/>
       <c r="O528" s="13"/>
-      <c r="P528" s="13"/>
+      <c r="P528" s="15"/>
       <c r="Q528" s="13"/>
       <c r="R528" s="14"/>
       <c r="S528" s="2"/>
@@ -24558,7 +24566,7 @@
       <c r="M529" s="13"/>
       <c r="N529" s="13"/>
       <c r="O529" s="13"/>
-      <c r="P529" s="13"/>
+      <c r="P529" s="15"/>
       <c r="Q529" s="13"/>
       <c r="R529" s="14"/>
       <c r="S529" s="2"/>
@@ -24575,7 +24583,7 @@
       <c r="M530" s="13"/>
       <c r="N530" s="13"/>
       <c r="O530" s="13"/>
-      <c r="P530" s="13"/>
+      <c r="P530" s="15"/>
       <c r="Q530" s="13"/>
       <c r="R530" s="14"/>
       <c r="S530" s="2"/>
@@ -24592,7 +24600,7 @@
       <c r="M531" s="13"/>
       <c r="N531" s="13"/>
       <c r="O531" s="13"/>
-      <c r="P531" s="13"/>
+      <c r="P531" s="15"/>
       <c r="Q531" s="13"/>
       <c r="R531" s="14"/>
       <c r="S531" s="2"/>
@@ -24609,7 +24617,7 @@
       <c r="M532" s="13"/>
       <c r="N532" s="13"/>
       <c r="O532" s="13"/>
-      <c r="P532" s="13"/>
+      <c r="P532" s="15"/>
       <c r="Q532" s="13"/>
       <c r="R532" s="14"/>
       <c r="S532" s="2"/>
@@ -24626,7 +24634,7 @@
       <c r="M533" s="13"/>
       <c r="N533" s="13"/>
       <c r="O533" s="13"/>
-      <c r="P533" s="13"/>
+      <c r="P533" s="15"/>
       <c r="Q533" s="13"/>
       <c r="R533" s="14"/>
       <c r="S533" s="2"/>
@@ -24643,7 +24651,7 @@
       <c r="M534" s="13"/>
       <c r="N534" s="13"/>
       <c r="O534" s="13"/>
-      <c r="P534" s="13"/>
+      <c r="P534" s="15"/>
       <c r="Q534" s="13"/>
       <c r="R534" s="14"/>
       <c r="S534" s="2"/>
@@ -24660,7 +24668,7 @@
       <c r="M535" s="13"/>
       <c r="N535" s="13"/>
       <c r="O535" s="13"/>
-      <c r="P535" s="13"/>
+      <c r="P535" s="15"/>
       <c r="Q535" s="13"/>
       <c r="R535" s="14"/>
       <c r="S535" s="2"/>
@@ -24677,7 +24685,7 @@
       <c r="M536" s="13"/>
       <c r="N536" s="13"/>
       <c r="O536" s="13"/>
-      <c r="P536" s="13"/>
+      <c r="P536" s="15"/>
       <c r="Q536" s="13"/>
       <c r="R536" s="14"/>
       <c r="S536" s="2"/>
@@ -24694,7 +24702,7 @@
       <c r="M537" s="13"/>
       <c r="N537" s="13"/>
       <c r="O537" s="13"/>
-      <c r="P537" s="13"/>
+      <c r="P537" s="15"/>
       <c r="Q537" s="13"/>
       <c r="R537" s="14"/>
       <c r="S537" s="2"/>
@@ -24711,7 +24719,7 @@
       <c r="M538" s="13"/>
       <c r="N538" s="13"/>
       <c r="O538" s="13"/>
-      <c r="P538" s="13"/>
+      <c r="P538" s="15"/>
       <c r="Q538" s="13"/>
       <c r="R538" s="14"/>
       <c r="S538" s="2"/>
@@ -24728,7 +24736,7 @@
       <c r="M539" s="13"/>
       <c r="N539" s="13"/>
       <c r="O539" s="13"/>
-      <c r="P539" s="13"/>
+      <c r="P539" s="15"/>
       <c r="Q539" s="13"/>
       <c r="R539" s="14"/>
       <c r="S539" s="2"/>
@@ -24745,7 +24753,7 @@
       <c r="M540" s="13"/>
       <c r="N540" s="13"/>
       <c r="O540" s="13"/>
-      <c r="P540" s="13"/>
+      <c r="P540" s="15"/>
       <c r="Q540" s="13"/>
       <c r="R540" s="14"/>
       <c r="S540" s="2"/>
@@ -24762,7 +24770,7 @@
       <c r="M541" s="13"/>
       <c r="N541" s="13"/>
       <c r="O541" s="13"/>
-      <c r="P541" s="13"/>
+      <c r="P541" s="15"/>
       <c r="Q541" s="13"/>
       <c r="R541" s="14"/>
       <c r="S541" s="2"/>
@@ -24779,7 +24787,7 @@
       <c r="M542" s="13"/>
       <c r="N542" s="13"/>
       <c r="O542" s="13"/>
-      <c r="P542" s="13"/>
+      <c r="P542" s="15"/>
       <c r="Q542" s="13"/>
       <c r="R542" s="14"/>
       <c r="S542" s="2"/>
@@ -24796,7 +24804,7 @@
       <c r="M543" s="13"/>
       <c r="N543" s="13"/>
       <c r="O543" s="13"/>
-      <c r="P543" s="13"/>
+      <c r="P543" s="15"/>
       <c r="Q543" s="13"/>
       <c r="R543" s="14"/>
       <c r="S543" s="2"/>
@@ -24813,7 +24821,7 @@
       <c r="M544" s="13"/>
       <c r="N544" s="13"/>
       <c r="O544" s="13"/>
-      <c r="P544" s="13"/>
+      <c r="P544" s="15"/>
       <c r="Q544" s="13"/>
       <c r="R544" s="14"/>
       <c r="S544" s="2"/>
@@ -24830,7 +24838,7 @@
       <c r="M545" s="13"/>
       <c r="N545" s="13"/>
       <c r="O545" s="13"/>
-      <c r="P545" s="13"/>
+      <c r="P545" s="15"/>
       <c r="Q545" s="13"/>
       <c r="R545" s="14"/>
       <c r="S545" s="2"/>
@@ -24847,7 +24855,7 @@
       <c r="M546" s="13"/>
       <c r="N546" s="13"/>
       <c r="O546" s="13"/>
-      <c r="P546" s="13"/>
+      <c r="P546" s="15"/>
       <c r="Q546" s="13"/>
       <c r="R546" s="14"/>
       <c r="S546" s="2"/>
@@ -24864,7 +24872,7 @@
       <c r="M547" s="13"/>
       <c r="N547" s="13"/>
       <c r="O547" s="13"/>
-      <c r="P547" s="13"/>
+      <c r="P547" s="15"/>
       <c r="Q547" s="13"/>
       <c r="R547" s="14"/>
       <c r="S547" s="2"/>
@@ -24881,7 +24889,7 @@
       <c r="M548" s="13"/>
       <c r="N548" s="13"/>
       <c r="O548" s="13"/>
-      <c r="P548" s="13"/>
+      <c r="P548" s="15"/>
       <c r="Q548" s="13"/>
       <c r="R548" s="14"/>
       <c r="S548" s="2"/>
@@ -24898,7 +24906,7 @@
       <c r="M549" s="13"/>
       <c r="N549" s="13"/>
       <c r="O549" s="13"/>
-      <c r="P549" s="13"/>
+      <c r="P549" s="15"/>
       <c r="Q549" s="13"/>
       <c r="R549" s="14"/>
       <c r="S549" s="2"/>
@@ -24915,7 +24923,7 @@
       <c r="M550" s="13"/>
       <c r="N550" s="13"/>
       <c r="O550" s="13"/>
-      <c r="P550" s="13"/>
+      <c r="P550" s="15"/>
       <c r="Q550" s="13"/>
       <c r="R550" s="14"/>
       <c r="S550" s="2"/>
@@ -24932,7 +24940,7 @@
       <c r="M551" s="13"/>
       <c r="N551" s="13"/>
       <c r="O551" s="13"/>
-      <c r="P551" s="13"/>
+      <c r="P551" s="15"/>
       <c r="Q551" s="13"/>
       <c r="R551" s="14"/>
       <c r="S551" s="2"/>
@@ -24949,7 +24957,7 @@
       <c r="M552" s="13"/>
       <c r="N552" s="13"/>
       <c r="O552" s="13"/>
-      <c r="P552" s="13"/>
+      <c r="P552" s="15"/>
       <c r="Q552" s="13"/>
       <c r="R552" s="14"/>
       <c r="S552" s="2"/>
@@ -24966,7 +24974,7 @@
       <c r="M553" s="13"/>
       <c r="N553" s="13"/>
       <c r="O553" s="13"/>
-      <c r="P553" s="13"/>
+      <c r="P553" s="15"/>
       <c r="Q553" s="13"/>
       <c r="R553" s="14"/>
       <c r="S553" s="2"/>
@@ -24983,7 +24991,7 @@
       <c r="M554" s="13"/>
       <c r="N554" s="13"/>
       <c r="O554" s="13"/>
-      <c r="P554" s="13"/>
+      <c r="P554" s="15"/>
       <c r="Q554" s="13"/>
       <c r="R554" s="14"/>
       <c r="S554" s="2"/>
@@ -25000,7 +25008,7 @@
       <c r="M555" s="13"/>
       <c r="N555" s="13"/>
       <c r="O555" s="13"/>
-      <c r="P555" s="13"/>
+      <c r="P555" s="15"/>
       <c r="Q555" s="13"/>
       <c r="R555" s="14"/>
       <c r="S555" s="2"/>
@@ -25017,7 +25025,7 @@
       <c r="M556" s="13"/>
       <c r="N556" s="13"/>
       <c r="O556" s="13"/>
-      <c r="P556" s="13"/>
+      <c r="P556" s="15"/>
       <c r="Q556" s="13"/>
       <c r="R556" s="14"/>
       <c r="S556" s="2"/>
@@ -25034,7 +25042,7 @@
       <c r="M557" s="13"/>
       <c r="N557" s="13"/>
       <c r="O557" s="13"/>
-      <c r="P557" s="13"/>
+      <c r="P557" s="15"/>
       <c r="Q557" s="13"/>
       <c r="R557" s="14"/>
       <c r="S557" s="2"/>
@@ -25051,7 +25059,7 @@
       <c r="M558" s="13"/>
       <c r="N558" s="13"/>
       <c r="O558" s="13"/>
-      <c r="P558" s="13"/>
+      <c r="P558" s="15"/>
       <c r="Q558" s="13"/>
       <c r="R558" s="14"/>
       <c r="S558" s="2"/>
@@ -25068,7 +25076,7 @@
       <c r="M559" s="13"/>
       <c r="N559" s="13"/>
       <c r="O559" s="13"/>
-      <c r="P559" s="13"/>
+      <c r="P559" s="15"/>
       <c r="Q559" s="13"/>
       <c r="R559" s="14"/>
       <c r="S559" s="2"/>
@@ -25085,7 +25093,7 @@
       <c r="M560" s="13"/>
       <c r="N560" s="13"/>
       <c r="O560" s="13"/>
-      <c r="P560" s="13"/>
+      <c r="P560" s="15"/>
       <c r="Q560" s="13"/>
       <c r="R560" s="14"/>
       <c r="S560" s="2"/>
@@ -25102,7 +25110,7 @@
       <c r="M561" s="13"/>
       <c r="N561" s="13"/>
       <c r="O561" s="13"/>
-      <c r="P561" s="13"/>
+      <c r="P561" s="15"/>
       <c r="Q561" s="13"/>
       <c r="R561" s="14"/>
       <c r="S561" s="2"/>
@@ -25119,7 +25127,7 @@
       <c r="M562" s="13"/>
       <c r="N562" s="13"/>
       <c r="O562" s="13"/>
-      <c r="P562" s="13"/>
+      <c r="P562" s="15"/>
       <c r="Q562" s="13"/>
       <c r="R562" s="14"/>
       <c r="S562" s="2"/>
@@ -25136,7 +25144,7 @@
       <c r="M563" s="13"/>
       <c r="N563" s="13"/>
       <c r="O563" s="13"/>
-      <c r="P563" s="13"/>
+      <c r="P563" s="15"/>
       <c r="Q563" s="13"/>
       <c r="R563" s="14"/>
       <c r="S563" s="2"/>
@@ -25153,7 +25161,7 @@
       <c r="M564" s="13"/>
       <c r="N564" s="13"/>
       <c r="O564" s="13"/>
-      <c r="P564" s="13"/>
+      <c r="P564" s="15"/>
       <c r="Q564" s="13"/>
       <c r="R564" s="14"/>
       <c r="S564" s="2"/>
@@ -25170,7 +25178,7 @@
       <c r="M565" s="13"/>
       <c r="N565" s="13"/>
       <c r="O565" s="13"/>
-      <c r="P565" s="13"/>
+      <c r="P565" s="15"/>
       <c r="Q565" s="13"/>
       <c r="R565" s="14"/>
       <c r="S565" s="2"/>
@@ -25187,7 +25195,7 @@
       <c r="M566" s="13"/>
       <c r="N566" s="13"/>
       <c r="O566" s="13"/>
-      <c r="P566" s="13"/>
+      <c r="P566" s="15"/>
       <c r="Q566" s="13"/>
       <c r="R566" s="14"/>
       <c r="S566" s="2"/>
@@ -25204,7 +25212,7 @@
       <c r="M567" s="13"/>
       <c r="N567" s="13"/>
       <c r="O567" s="13"/>
-      <c r="P567" s="13"/>
+      <c r="P567" s="15"/>
       <c r="Q567" s="13"/>
       <c r="R567" s="14"/>
       <c r="S567" s="2"/>
@@ -25221,7 +25229,7 @@
       <c r="M568" s="13"/>
       <c r="N568" s="13"/>
       <c r="O568" s="13"/>
-      <c r="P568" s="13"/>
+      <c r="P568" s="15"/>
       <c r="Q568" s="13"/>
       <c r="R568" s="14"/>
       <c r="S568" s="2"/>
@@ -25238,7 +25246,7 @@
       <c r="M569" s="13"/>
       <c r="N569" s="13"/>
       <c r="O569" s="13"/>
-      <c r="P569" s="13"/>
+      <c r="P569" s="15"/>
       <c r="Q569" s="13"/>
       <c r="R569" s="14"/>
       <c r="S569" s="2"/>
@@ -25255,7 +25263,7 @@
       <c r="M570" s="13"/>
       <c r="N570" s="13"/>
       <c r="O570" s="13"/>
-      <c r="P570" s="13"/>
+      <c r="P570" s="15"/>
       <c r="Q570" s="13"/>
       <c r="R570" s="14"/>
       <c r="S570" s="2"/>
@@ -25272,7 +25280,7 @@
       <c r="M571" s="13"/>
       <c r="N571" s="13"/>
       <c r="O571" s="13"/>
-      <c r="P571" s="13"/>
+      <c r="P571" s="15"/>
       <c r="Q571" s="13"/>
       <c r="R571" s="14"/>
       <c r="S571" s="2"/>
@@ -25289,7 +25297,7 @@
       <c r="M572" s="13"/>
       <c r="N572" s="13"/>
       <c r="O572" s="13"/>
-      <c r="P572" s="13"/>
+      <c r="P572" s="15"/>
       <c r="Q572" s="13"/>
       <c r="R572" s="14"/>
       <c r="S572" s="2"/>
@@ -25306,7 +25314,7 @@
       <c r="M573" s="13"/>
       <c r="N573" s="13"/>
       <c r="O573" s="13"/>
-      <c r="P573" s="13"/>
+      <c r="P573" s="15"/>
       <c r="Q573" s="13"/>
       <c r="R573" s="14"/>
       <c r="S573" s="2"/>
@@ -25323,7 +25331,7 @@
       <c r="M574" s="13"/>
       <c r="N574" s="13"/>
       <c r="O574" s="13"/>
-      <c r="P574" s="13"/>
+      <c r="P574" s="15"/>
       <c r="Q574" s="13"/>
       <c r="R574" s="14"/>
       <c r="S574" s="2"/>
@@ -25340,7 +25348,7 @@
       <c r="M575" s="13"/>
       <c r="N575" s="13"/>
       <c r="O575" s="13"/>
-      <c r="P575" s="13"/>
+      <c r="P575" s="15"/>
       <c r="Q575" s="13"/>
       <c r="R575" s="14"/>
       <c r="S575" s="2"/>
@@ -25357,7 +25365,7 @@
       <c r="M576" s="13"/>
       <c r="N576" s="13"/>
       <c r="O576" s="13"/>
-      <c r="P576" s="13"/>
+      <c r="P576" s="15"/>
       <c r="Q576" s="13"/>
       <c r="R576" s="14"/>
       <c r="S576" s="2"/>
@@ -25374,7 +25382,7 @@
       <c r="M577" s="13"/>
       <c r="N577" s="13"/>
       <c r="O577" s="13"/>
-      <c r="P577" s="13"/>
+      <c r="P577" s="15"/>
       <c r="Q577" s="13"/>
       <c r="R577" s="14"/>
       <c r="S577" s="2"/>
@@ -25391,7 +25399,7 @@
       <c r="M578" s="13"/>
       <c r="N578" s="13"/>
       <c r="O578" s="13"/>
-      <c r="P578" s="13"/>
+      <c r="P578" s="15"/>
       <c r="Q578" s="13"/>
       <c r="R578" s="14"/>
       <c r="S578" s="2"/>
@@ -25408,7 +25416,7 @@
       <c r="M579" s="13"/>
       <c r="N579" s="13"/>
       <c r="O579" s="13"/>
-      <c r="P579" s="13"/>
+      <c r="P579" s="15"/>
       <c r="Q579" s="13"/>
       <c r="R579" s="14"/>
       <c r="S579" s="2"/>
@@ -25425,7 +25433,7 @@
       <c r="M580" s="13"/>
       <c r="N580" s="13"/>
       <c r="O580" s="13"/>
-      <c r="P580" s="13"/>
+      <c r="P580" s="15"/>
       <c r="Q580" s="13"/>
       <c r="R580" s="14"/>
       <c r="S580" s="2"/>
@@ -25442,7 +25450,7 @@
       <c r="M581" s="13"/>
       <c r="N581" s="13"/>
       <c r="O581" s="13"/>
-      <c r="P581" s="13"/>
+      <c r="P581" s="15"/>
       <c r="Q581" s="13"/>
       <c r="R581" s="14"/>
       <c r="S581" s="2"/>
@@ -25459,7 +25467,7 @@
       <c r="M582" s="13"/>
       <c r="N582" s="13"/>
       <c r="O582" s="13"/>
-      <c r="P582" s="13"/>
+      <c r="P582" s="15"/>
       <c r="Q582" s="13"/>
       <c r="R582" s="14"/>
       <c r="S582" s="2"/>
@@ -25476,7 +25484,7 @@
       <c r="M583" s="13"/>
       <c r="N583" s="13"/>
       <c r="O583" s="13"/>
-      <c r="P583" s="13"/>
+      <c r="P583" s="15"/>
       <c r="Q583" s="13"/>
       <c r="R583" s="14"/>
       <c r="S583" s="2"/>
@@ -26746,6 +26754,11 @@
         <filter val="LDO"/>
         <filter val="RAD"/>
         <filter val="RSA"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>
